--- a/3_LF_Control_MCU/LF_Control_MCU PIN TABLE_20180213.xlsx
+++ b/3_LF_Control_MCU/LF_Control_MCU PIN TABLE_20180213.xlsx
@@ -4742,6 +4742,264 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4760,85 +5018,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4850,62 +5060,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4915,213 +5122,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5618,16 +5618,16 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="379" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="296"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="382"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="121" t="s">
@@ -6471,8 +6471,8 @@
       <c r="E53" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F53" s="291"/>
-      <c r="G53" s="292"/>
+      <c r="F53" s="377"/>
+      <c r="G53" s="378"/>
       <c r="H53" s="74"/>
       <c r="I53" s="74"/>
       <c r="J53" s="74"/>
@@ -6492,8 +6492,8 @@
       <c r="E54" s="96" t="s">
         <v>562</v>
       </c>
-      <c r="F54" s="291"/>
-      <c r="G54" s="292"/>
+      <c r="F54" s="377"/>
+      <c r="G54" s="378"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
       <c r="J54" s="74"/>
@@ -6513,8 +6513,8 @@
       <c r="E55" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F55" s="291"/>
-      <c r="G55" s="292"/>
+      <c r="F55" s="377"/>
+      <c r="G55" s="378"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
       <c r="J55" s="74"/>
@@ -6534,8 +6534,8 @@
       <c r="E56" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="F56" s="291"/>
-      <c r="G56" s="292"/>
+      <c r="F56" s="377"/>
+      <c r="G56" s="378"/>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
       <c r="J56" s="74"/>
@@ -6555,8 +6555,8 @@
       <c r="E57" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="F57" s="291"/>
-      <c r="G57" s="292"/>
+      <c r="F57" s="377"/>
+      <c r="G57" s="378"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
       <c r="J57" s="74"/>
@@ -6576,8 +6576,8 @@
       <c r="E58" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="F58" s="291"/>
-      <c r="G58" s="292"/>
+      <c r="F58" s="377"/>
+      <c r="G58" s="378"/>
       <c r="H58" s="74"/>
       <c r="I58" s="74"/>
       <c r="J58" s="74"/>
@@ -6597,8 +6597,8 @@
       <c r="E59" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="F59" s="291"/>
-      <c r="G59" s="292"/>
+      <c r="F59" s="377"/>
+      <c r="G59" s="378"/>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
       <c r="J59" s="74"/>
@@ -6618,8 +6618,8 @@
       <c r="E60" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="F60" s="291"/>
-      <c r="G60" s="292"/>
+      <c r="F60" s="377"/>
+      <c r="G60" s="378"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
       <c r="J60" s="74"/>
@@ -6639,8 +6639,8 @@
       <c r="E61" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="F61" s="291"/>
-      <c r="G61" s="292"/>
+      <c r="F61" s="377"/>
+      <c r="G61" s="378"/>
       <c r="H61" s="74"/>
       <c r="I61" s="74"/>
       <c r="J61" s="74"/>
@@ -6660,8 +6660,8 @@
       <c r="E62" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F62" s="291"/>
-      <c r="G62" s="292"/>
+      <c r="F62" s="377"/>
+      <c r="G62" s="378"/>
       <c r="H62" s="74"/>
       <c r="I62" s="74"/>
       <c r="J62" s="74"/>
@@ -6681,8 +6681,8 @@
       <c r="E63" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F63" s="291"/>
-      <c r="G63" s="292"/>
+      <c r="F63" s="377"/>
+      <c r="G63" s="378"/>
       <c r="H63" s="74"/>
       <c r="I63" s="74"/>
       <c r="J63" s="74"/>
@@ -6702,10 +6702,10 @@
       <c r="E64" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F64" s="291" t="s">
+      <c r="F64" s="377" t="s">
         <v>504</v>
       </c>
-      <c r="G64" s="292"/>
+      <c r="G64" s="378"/>
       <c r="H64" s="74"/>
       <c r="I64" s="74"/>
       <c r="J64" s="74"/>
@@ -6725,10 +6725,10 @@
       <c r="E65" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F65" s="291" t="s">
+      <c r="F65" s="377" t="s">
         <v>504</v>
       </c>
-      <c r="G65" s="292"/>
+      <c r="G65" s="378"/>
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
       <c r="J65" s="74"/>
@@ -6748,10 +6748,10 @@
       <c r="E66" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F66" s="291" t="s">
+      <c r="F66" s="377" t="s">
         <v>578</v>
       </c>
-      <c r="G66" s="292"/>
+      <c r="G66" s="378"/>
       <c r="H66" s="74"/>
       <c r="I66" s="74"/>
       <c r="J66" s="74"/>
@@ -6771,10 +6771,10 @@
       <c r="E67" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F67" s="291" t="s">
+      <c r="F67" s="377" t="s">
         <v>578</v>
       </c>
-      <c r="G67" s="292"/>
+      <c r="G67" s="378"/>
       <c r="H67" s="74"/>
       <c r="I67" s="74"/>
       <c r="J67" s="74"/>
@@ -6794,10 +6794,10 @@
       <c r="E68" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F68" s="291" t="s">
+      <c r="F68" s="377" t="s">
         <v>163</v>
       </c>
-      <c r="G68" s="292"/>
+      <c r="G68" s="378"/>
       <c r="H68" s="74"/>
       <c r="I68" s="74"/>
       <c r="J68" s="74"/>
@@ -6817,10 +6817,10 @@
       <c r="E69" s="92" t="s">
         <v>562</v>
       </c>
-      <c r="F69" s="291" t="s">
+      <c r="F69" s="377" t="s">
         <v>523</v>
       </c>
-      <c r="G69" s="292"/>
+      <c r="G69" s="378"/>
       <c r="L69"/>
     </row>
     <row r="72" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7078,11 +7078,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B3:I3"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="F65:G65"/>
@@ -7096,6 +7091,11 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7158,11 +7158,11 @@
     </row>
     <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="69"/>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="407" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309" t="s">
+      <c r="C2" s="408"/>
+      <c r="D2" s="408" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="218"/>
@@ -7175,26 +7175,26 @@
       <c r="L2" s="151"/>
       <c r="M2" s="151"/>
       <c r="N2" s="151"/>
-      <c r="O2" s="297" t="s">
+      <c r="O2" s="414" t="s">
         <v>663</v>
       </c>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
-      <c r="R2" s="297"/>
-      <c r="S2" s="312" t="s">
+      <c r="P2" s="414"/>
+      <c r="Q2" s="414"/>
+      <c r="R2" s="414"/>
+      <c r="S2" s="411" t="s">
         <v>605</v>
       </c>
-      <c r="T2" s="302" t="s">
+      <c r="T2" s="403" t="s">
         <v>633</v>
       </c>
-      <c r="U2" s="304" t="s">
+      <c r="U2" s="404" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="310"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
+      <c r="B3" s="409"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
       <c r="E3" s="181" t="s">
         <v>168</v>
       </c>
@@ -7237,9 +7237,9 @@
       <c r="R3" s="194" t="s">
         <v>642</v>
       </c>
-      <c r="S3" s="313"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="305"/>
+      <c r="S3" s="412"/>
+      <c r="T3" s="388"/>
+      <c r="U3" s="405"/>
       <c r="X3" s="31" t="s">
         <v>179</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="316" t="s">
+      <c r="B4" s="392" t="s">
         <v>183</v>
       </c>
       <c r="C4" s="52" t="s">
@@ -7312,7 +7312,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="317"/>
+      <c r="B5" s="390"/>
       <c r="C5" s="137" t="s">
         <v>2</v>
       </c>
@@ -7372,7 +7372,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="317"/>
+      <c r="B6" s="390"/>
       <c r="C6" s="137" t="s">
         <v>3</v>
       </c>
@@ -7400,7 +7400,7 @@
       <c r="O6" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="298" t="s">
+      <c r="P6" s="397" t="s">
         <v>206</v>
       </c>
       <c r="Q6" s="179" t="s">
@@ -7410,7 +7410,7 @@
         <v>208</v>
       </c>
       <c r="S6" s="197"/>
-      <c r="T6" s="314" t="s">
+      <c r="T6" s="385" t="s">
         <v>209</v>
       </c>
       <c r="U6" s="113"/>
@@ -7428,7 +7428,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="317"/>
+      <c r="B7" s="390"/>
       <c r="C7" s="137" t="s">
         <v>4</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="O7" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P7" s="298"/>
+      <c r="P7" s="397"/>
       <c r="Q7" s="179" t="s">
         <v>99</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>215</v>
       </c>
       <c r="S7" s="197"/>
-      <c r="T7" s="314"/>
+      <c r="T7" s="385"/>
       <c r="U7" s="113"/>
       <c r="X7" s="28" t="s">
         <v>216</v>
@@ -7480,7 +7480,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="317"/>
+      <c r="B8" s="390"/>
       <c r="C8" s="136" t="s">
         <v>5</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="O8" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P8" s="299" t="s">
+      <c r="P8" s="398" t="s">
         <v>222</v>
       </c>
       <c r="Q8" s="179" t="s">
@@ -7518,7 +7518,7 @@
         <v>101</v>
       </c>
       <c r="S8" s="197"/>
-      <c r="T8" s="307" t="s">
+      <c r="T8" s="386" t="s">
         <v>223</v>
       </c>
       <c r="U8" s="113"/>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="317"/>
+      <c r="B9" s="390"/>
       <c r="C9" s="136" t="s">
         <v>6</v>
       </c>
@@ -7564,7 +7564,7 @@
       <c r="O9" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P9" s="298"/>
+      <c r="P9" s="397"/>
       <c r="Q9" s="179" t="s">
         <v>100</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>92</v>
       </c>
       <c r="S9" s="48"/>
-      <c r="T9" s="315"/>
+      <c r="T9" s="413"/>
       <c r="U9" s="113" t="s">
         <v>230</v>
       </c>
@@ -7590,7 +7590,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="317"/>
+      <c r="B10" s="390"/>
       <c r="C10" s="136" t="s">
         <v>7</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="O10" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P10" s="298"/>
+      <c r="P10" s="397"/>
       <c r="Q10" s="179" t="s">
         <v>99</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>238</v>
       </c>
       <c r="S10" s="48"/>
-      <c r="T10" s="315"/>
+      <c r="T10" s="413"/>
       <c r="U10" s="113"/>
       <c r="X10" s="34" t="s">
         <v>239</v>
@@ -7644,7 +7644,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="317"/>
+      <c r="B11" s="390"/>
       <c r="C11" s="136" t="s">
         <v>8</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="O11" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P11" s="298"/>
+      <c r="P11" s="397"/>
       <c r="Q11" s="179" t="s">
         <v>207</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>244</v>
       </c>
       <c r="S11" s="48"/>
-      <c r="T11" s="315"/>
+      <c r="T11" s="413"/>
       <c r="U11" s="113"/>
       <c r="X11" s="37" t="s">
         <v>245</v>
@@ -7696,7 +7696,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="317"/>
+      <c r="B12" s="390"/>
       <c r="C12" s="137" t="s">
         <v>9</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="AA12" s="34"/>
     </row>
     <row r="13" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="317"/>
+      <c r="B13" s="390"/>
       <c r="C13" s="135" t="s">
         <v>10</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="AA13" s="54"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="317"/>
+      <c r="B14" s="390"/>
       <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="179"/>
-      <c r="P14" s="298" t="s">
+      <c r="P14" s="397" t="s">
         <v>231</v>
       </c>
       <c r="Q14" s="179" t="s">
@@ -7834,7 +7834,7 @@
         <v>270</v>
       </c>
       <c r="S14" s="49"/>
-      <c r="T14" s="314" t="s">
+      <c r="T14" s="385" t="s">
         <v>231</v>
       </c>
       <c r="U14" s="113"/>
@@ -7848,7 +7848,7 @@
       <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="317"/>
+      <c r="B15" s="390"/>
       <c r="C15" s="137" t="s">
         <v>12</v>
       </c>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="179"/>
-      <c r="P15" s="298"/>
+      <c r="P15" s="397"/>
       <c r="Q15" s="179" t="s">
         <v>276</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>277</v>
       </c>
       <c r="S15" s="197"/>
-      <c r="T15" s="314"/>
+      <c r="T15" s="385"/>
       <c r="U15" s="113"/>
       <c r="X15" s="28" t="s">
         <v>278</v>
@@ -7894,7 +7894,7 @@
       <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="317"/>
+      <c r="B16" s="390"/>
       <c r="C16" s="137" t="s">
         <v>13</v>
       </c>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="179"/>
-      <c r="P16" s="298"/>
+      <c r="P16" s="397"/>
       <c r="Q16" s="179" t="s">
         <v>276</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>78</v>
       </c>
       <c r="S16" s="199"/>
-      <c r="T16" s="314"/>
+      <c r="T16" s="385"/>
       <c r="U16" s="113"/>
       <c r="X16" s="29" t="s">
         <v>284</v>
@@ -7940,7 +7940,7 @@
       <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="317"/>
+      <c r="B17" s="390"/>
       <c r="C17" s="137" t="s">
         <v>14</v>
       </c>
@@ -7972,14 +7972,14 @@
         <v>288</v>
       </c>
       <c r="S17" s="49"/>
-      <c r="T17" s="314" t="s">
+      <c r="T17" s="385" t="s">
         <v>643</v>
       </c>
       <c r="U17" s="113"/>
       <c r="AJ17" s="11"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="317"/>
+      <c r="B18" s="390"/>
       <c r="C18" s="137" t="s">
         <v>15</v>
       </c>
@@ -8011,11 +8011,11 @@
         <v>80</v>
       </c>
       <c r="S18" s="49"/>
-      <c r="T18" s="314"/>
+      <c r="T18" s="385"/>
       <c r="U18" s="113"/>
     </row>
     <row r="19" spans="2:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="318"/>
+      <c r="B19" s="393"/>
       <c r="C19" s="138" t="s">
         <v>16</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="U19" s="173"/>
     </row>
     <row r="20" spans="2:36" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="321" t="s">
+      <c r="B20" s="389" t="s">
         <v>293</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -8109,7 +8109,7 @@
       <c r="U20" s="159"/>
     </row>
     <row r="21" spans="2:36" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="317"/>
+      <c r="B21" s="390"/>
       <c r="C21" s="137" t="s">
         <v>17</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="U21" s="113"/>
     </row>
     <row r="22" spans="2:36" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="317"/>
+      <c r="B22" s="390"/>
       <c r="C22" s="135" t="s">
         <v>18</v>
       </c>
@@ -8183,7 +8183,7 @@
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="317"/>
+      <c r="B23" s="390"/>
       <c r="C23" s="137" t="s">
         <v>19</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="U23" s="113"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="317"/>
+      <c r="B24" s="390"/>
       <c r="C24" s="137" t="s">
         <v>20</v>
       </c>
@@ -8270,7 +8270,7 @@
       </c>
     </row>
     <row r="25" spans="2:36" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="317"/>
+      <c r="B25" s="390"/>
       <c r="C25" s="135" t="s">
         <v>21</v>
       </c>
@@ -8318,7 +8318,7 @@
       </c>
     </row>
     <row r="26" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="317"/>
+      <c r="B26" s="390"/>
       <c r="C26" s="137" t="s">
         <v>22</v>
       </c>
@@ -8344,7 +8344,7 @@
       <c r="O26" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P26" s="299" t="s">
+      <c r="P26" s="398" t="s">
         <v>321</v>
       </c>
       <c r="Q26" s="179" t="s">
@@ -8354,11 +8354,11 @@
         <v>322</v>
       </c>
       <c r="S26" s="197"/>
-      <c r="T26" s="325" t="s">
+      <c r="T26" s="395" t="s">
         <v>631</v>
       </c>
       <c r="U26" s="113"/>
-      <c r="X26" s="327" t="s">
+      <c r="X26" s="383" t="s">
         <v>321</v>
       </c>
       <c r="Y26" s="115" t="s">
@@ -8389,7 +8389,7 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="317"/>
+      <c r="B27" s="390"/>
       <c r="C27" s="137" t="s">
         <v>23</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="O27" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P27" s="298"/>
+      <c r="P27" s="397"/>
       <c r="Q27" s="179" t="s">
         <v>276</v>
       </c>
@@ -8425,9 +8425,9 @@
         <v>326</v>
       </c>
       <c r="S27" s="197"/>
-      <c r="T27" s="314"/>
+      <c r="T27" s="385"/>
       <c r="U27" s="113"/>
-      <c r="X27" s="328"/>
+      <c r="X27" s="384"/>
       <c r="Y27" t="s">
         <v>610</v>
       </c>
@@ -8456,7 +8456,7 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="317"/>
+      <c r="B28" s="390"/>
       <c r="C28" s="137" t="s">
         <v>24</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="AB28" s="72"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B29" s="317"/>
+      <c r="B29" s="390"/>
       <c r="C29" s="44" t="s">
         <v>25</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="O29" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P29" s="299" t="s">
+      <c r="P29" s="398" t="s">
         <v>339</v>
       </c>
       <c r="Q29" s="179" t="s">
@@ -8541,13 +8541,13 @@
         <v>341</v>
       </c>
       <c r="S29" s="197"/>
-      <c r="T29" s="307" t="s">
+      <c r="T29" s="386" t="s">
         <v>634</v>
       </c>
       <c r="U29" s="113"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B30" s="317"/>
+      <c r="B30" s="390"/>
       <c r="C30" s="44" t="s">
         <v>26</v>
       </c>
@@ -8577,7 +8577,7 @@
       <c r="O30" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P30" s="298"/>
+      <c r="P30" s="397"/>
       <c r="Q30" s="179" t="s">
         <v>100</v>
       </c>
@@ -8585,11 +8585,11 @@
         <v>93</v>
       </c>
       <c r="S30" s="48"/>
-      <c r="T30" s="307"/>
+      <c r="T30" s="386"/>
       <c r="U30" s="113"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B31" s="317"/>
+      <c r="B31" s="390"/>
       <c r="C31" s="106" t="s">
         <v>27</v>
       </c>
@@ -8631,7 +8631,7 @@
       <c r="U31" s="113"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B32" s="317"/>
+      <c r="B32" s="390"/>
       <c r="C32" s="137" t="s">
         <v>28</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="O32" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P32" s="299" t="s">
+      <c r="P32" s="398" t="s">
         <v>351</v>
       </c>
       <c r="Q32" s="179" t="s">
@@ -8669,13 +8669,13 @@
         <v>454</v>
       </c>
       <c r="S32" s="197"/>
-      <c r="T32" s="314" t="s">
+      <c r="T32" s="385" t="s">
         <v>91</v>
       </c>
       <c r="U32" s="113"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="317"/>
+      <c r="B33" s="390"/>
       <c r="C33" s="137" t="s">
         <v>29</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="O33" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P33" s="298"/>
+      <c r="P33" s="397"/>
       <c r="Q33" s="179" t="s">
         <v>207</v>
       </c>
@@ -8709,11 +8709,11 @@
         <v>451</v>
       </c>
       <c r="S33" s="48"/>
-      <c r="T33" s="314"/>
+      <c r="T33" s="385"/>
       <c r="U33" s="113"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="317"/>
+      <c r="B34" s="390"/>
       <c r="C34" s="137" t="s">
         <v>30</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="O34" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P34" s="298"/>
+      <c r="P34" s="397"/>
       <c r="Q34" s="179" t="s">
         <v>99</v>
       </c>
@@ -8749,11 +8749,11 @@
         <v>457</v>
       </c>
       <c r="S34" s="48"/>
-      <c r="T34" s="314"/>
+      <c r="T34" s="385"/>
       <c r="U34" s="113"/>
     </row>
     <row r="35" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="322"/>
+      <c r="B35" s="391"/>
       <c r="C35" s="126" t="s">
         <v>31</v>
       </c>
@@ -8783,7 +8783,7 @@
       <c r="O35" s="184" t="s">
         <v>575</v>
       </c>
-      <c r="P35" s="319"/>
+      <c r="P35" s="399"/>
       <c r="Q35" s="184" t="s">
         <v>253</v>
       </c>
@@ -8791,11 +8791,11 @@
         <v>87</v>
       </c>
       <c r="S35" s="205"/>
-      <c r="T35" s="303"/>
+      <c r="T35" s="388"/>
       <c r="U35" s="172"/>
     </row>
     <row r="36" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="316" t="s">
+      <c r="B36" s="392" t="s">
         <v>369</v>
       </c>
       <c r="C36" s="52" t="s">
@@ -8837,7 +8837,7 @@
       <c r="U36" s="168"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="317"/>
+      <c r="B37" s="390"/>
       <c r="C37" s="137" t="s">
         <v>32</v>
       </c>
@@ -8877,7 +8877,7 @@
       <c r="U37" s="113"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="317"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="137" t="s">
         <v>33</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="U38" s="113"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="317"/>
+      <c r="B39" s="390"/>
       <c r="C39" s="137" t="s">
         <v>34</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="U39" s="113"/>
     </row>
     <row r="40" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="317"/>
+      <c r="B40" s="390"/>
       <c r="C40" s="137" t="s">
         <v>35</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="U40" s="113"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="317"/>
+      <c r="B41" s="390"/>
       <c r="C41" s="137" t="s">
         <v>36</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="U41" s="113"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="317"/>
+      <c r="B42" s="390"/>
       <c r="C42" s="137" t="s">
         <v>37</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="U42" s="208"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="317"/>
+      <c r="B43" s="390"/>
       <c r="C43" s="137" t="s">
         <v>38</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="U43" s="113"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B44" s="317"/>
+      <c r="B44" s="390"/>
       <c r="C44" s="137" t="s">
         <v>39</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="O44" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P44" s="299" t="s">
+      <c r="P44" s="398" t="s">
         <v>77</v>
       </c>
       <c r="Q44" s="179" t="s">
@@ -9167,13 +9167,13 @@
         <v>402</v>
       </c>
       <c r="S44" s="197"/>
-      <c r="T44" s="307" t="s">
+      <c r="T44" s="386" t="s">
         <v>403</v>
       </c>
       <c r="U44" s="113"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="317"/>
+      <c r="B45" s="390"/>
       <c r="C45" s="137" t="s">
         <v>40</v>
       </c>
@@ -9203,7 +9203,7 @@
       <c r="O45" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P45" s="298"/>
+      <c r="P45" s="397"/>
       <c r="Q45" s="179" t="s">
         <v>340</v>
       </c>
@@ -9211,11 +9211,11 @@
         <v>408</v>
       </c>
       <c r="S45" s="197"/>
-      <c r="T45" s="314"/>
+      <c r="T45" s="385"/>
       <c r="U45" s="113"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="317"/>
+      <c r="B46" s="390"/>
       <c r="C46" s="137" t="s">
         <v>41</v>
       </c>
@@ -9241,7 +9241,7 @@
       <c r="O46" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P46" s="298"/>
+      <c r="P46" s="397"/>
       <c r="Q46" s="179" t="s">
         <v>412</v>
       </c>
@@ -9249,11 +9249,11 @@
         <v>413</v>
       </c>
       <c r="S46" s="197"/>
-      <c r="T46" s="314"/>
+      <c r="T46" s="385"/>
       <c r="U46" s="113"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="317"/>
+      <c r="B47" s="390"/>
       <c r="C47" s="137" t="s">
         <v>42</v>
       </c>
@@ -9279,7 +9279,7 @@
       <c r="O47" s="179" t="s">
         <v>479</v>
       </c>
-      <c r="P47" s="298"/>
+      <c r="P47" s="397"/>
       <c r="Q47" s="179" t="s">
         <v>412</v>
       </c>
@@ -9287,11 +9287,11 @@
         <v>417</v>
       </c>
       <c r="S47" s="197"/>
-      <c r="T47" s="314"/>
+      <c r="T47" s="385"/>
       <c r="U47" s="113"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="317"/>
+      <c r="B48" s="390"/>
       <c r="C48" s="137" t="s">
         <v>43</v>
       </c>
@@ -9317,7 +9317,7 @@
       <c r="O48" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P48" s="298"/>
+      <c r="P48" s="397"/>
       <c r="Q48" s="179" t="s">
         <v>253</v>
       </c>
@@ -9325,11 +9325,11 @@
         <v>421</v>
       </c>
       <c r="S48" s="197"/>
-      <c r="T48" s="314"/>
+      <c r="T48" s="385"/>
       <c r="U48" s="113"/>
     </row>
     <row r="49" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="317"/>
+      <c r="B49" s="390"/>
       <c r="C49" s="44" t="s">
         <v>44</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="U49" s="113"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B50" s="317"/>
+      <c r="B50" s="390"/>
       <c r="C50" s="137" t="s">
         <v>45</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="M50" s="137"/>
       <c r="N50" s="137"/>
       <c r="O50" s="179"/>
-      <c r="P50" s="298" t="s">
+      <c r="P50" s="397" t="s">
         <v>422</v>
       </c>
       <c r="Q50" s="179" t="s">
@@ -9395,13 +9395,13 @@
         <v>423</v>
       </c>
       <c r="S50" s="48"/>
-      <c r="T50" s="314" t="s">
+      <c r="T50" s="385" t="s">
         <v>424</v>
       </c>
       <c r="U50" s="113"/>
     </row>
     <row r="51" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="318"/>
+      <c r="B51" s="393"/>
       <c r="C51" s="138" t="s">
         <v>46</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="M51" s="138"/>
       <c r="N51" s="138"/>
       <c r="O51" s="185"/>
-      <c r="P51" s="320"/>
+      <c r="P51" s="400"/>
       <c r="Q51" s="185" t="s">
         <v>207</v>
       </c>
@@ -9427,11 +9427,11 @@
         <v>85</v>
       </c>
       <c r="S51" s="209"/>
-      <c r="T51" s="324"/>
+      <c r="T51" s="394"/>
       <c r="U51" s="173"/>
     </row>
     <row r="52" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="321" t="s">
+      <c r="B52" s="389" t="s">
         <v>425</v>
       </c>
       <c r="C52" s="158" t="s">
@@ -9465,13 +9465,13 @@
       <c r="S52" s="166" t="s">
         <v>626</v>
       </c>
-      <c r="T52" s="306" t="s">
+      <c r="T52" s="406" t="s">
         <v>647</v>
       </c>
       <c r="U52" s="159"/>
     </row>
     <row r="53" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="317"/>
+      <c r="B53" s="390"/>
       <c r="C53" s="44" t="s">
         <v>47</v>
       </c>
@@ -9503,11 +9503,11 @@
       <c r="S53" s="153" t="s">
         <v>627</v>
       </c>
-      <c r="T53" s="307"/>
+      <c r="T53" s="386"/>
       <c r="U53" s="113"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B54" s="317"/>
+      <c r="B54" s="390"/>
       <c r="C54" s="137" t="s">
         <v>48</v>
       </c>
@@ -9547,7 +9547,7 @@
       <c r="U54" s="113"/>
     </row>
     <row r="55" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="317"/>
+      <c r="B55" s="390"/>
       <c r="C55" s="135" t="s">
         <v>49</v>
       </c>
@@ -9579,7 +9579,7 @@
       <c r="U55" s="113"/>
     </row>
     <row r="56" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="317"/>
+      <c r="B56" s="390"/>
       <c r="C56" s="135" t="s">
         <v>50</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="U56" s="113"/>
     </row>
     <row r="57" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="317"/>
+      <c r="B57" s="390"/>
       <c r="C57" s="137" t="s">
         <v>51</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="U57" s="113"/>
     </row>
     <row r="58" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="317"/>
+      <c r="B58" s="390"/>
       <c r="C58" s="137" t="s">
         <v>52</v>
       </c>
@@ -9679,13 +9679,13 @@
         <v>590</v>
       </c>
       <c r="S58" s="49"/>
-      <c r="T58" s="314" t="s">
+      <c r="T58" s="385" t="s">
         <v>108</v>
       </c>
       <c r="U58" s="113"/>
     </row>
     <row r="59" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="317"/>
+      <c r="B59" s="390"/>
       <c r="C59" s="137" t="s">
         <v>53</v>
       </c>
@@ -9717,11 +9717,11 @@
         <v>591</v>
       </c>
       <c r="S59" s="49"/>
-      <c r="T59" s="314"/>
+      <c r="T59" s="385"/>
       <c r="U59" s="113"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B60" s="317"/>
+      <c r="B60" s="390"/>
       <c r="C60" s="137" t="s">
         <v>54</v>
       </c>
@@ -9751,13 +9751,13 @@
         <v>592</v>
       </c>
       <c r="S60" s="48"/>
-      <c r="T60" s="314" t="s">
+      <c r="T60" s="385" t="s">
         <v>566</v>
       </c>
       <c r="U60" s="113"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B61" s="317"/>
+      <c r="B61" s="390"/>
       <c r="C61" s="137" t="s">
         <v>55</v>
       </c>
@@ -9787,11 +9787,11 @@
         <v>86</v>
       </c>
       <c r="S61" s="48"/>
-      <c r="T61" s="314"/>
+      <c r="T61" s="385"/>
       <c r="U61" s="113"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B62" s="317"/>
+      <c r="B62" s="390"/>
       <c r="C62" s="137" t="s">
         <v>56</v>
       </c>
@@ -9821,11 +9821,11 @@
         <v>593</v>
       </c>
       <c r="S62" s="48"/>
-      <c r="T62" s="314"/>
+      <c r="T62" s="385"/>
       <c r="U62" s="113"/>
     </row>
     <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="317"/>
+      <c r="B63" s="390"/>
       <c r="C63" s="137" t="s">
         <v>57</v>
       </c>
@@ -9861,7 +9861,7 @@
       <c r="U63" s="113"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B64" s="317"/>
+      <c r="B64" s="390"/>
       <c r="C64" s="137" t="s">
         <v>58</v>
       </c>
@@ -9893,13 +9893,13 @@
         <v>95</v>
       </c>
       <c r="S64" s="48"/>
-      <c r="T64" s="314" t="s">
+      <c r="T64" s="385" t="s">
         <v>440</v>
       </c>
       <c r="U64" s="113"/>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B65" s="317"/>
+      <c r="B65" s="390"/>
       <c r="C65" s="137" t="s">
         <v>59</v>
       </c>
@@ -9931,11 +9931,11 @@
         <v>442</v>
       </c>
       <c r="S65" s="48"/>
-      <c r="T65" s="314"/>
+      <c r="T65" s="385"/>
       <c r="U65" s="113"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B66" s="317"/>
+      <c r="B66" s="390"/>
       <c r="C66" s="137" t="s">
         <v>60</v>
       </c>
@@ -9967,11 +9967,11 @@
         <v>96</v>
       </c>
       <c r="S66" s="48"/>
-      <c r="T66" s="314"/>
+      <c r="T66" s="385"/>
       <c r="U66" s="113"/>
     </row>
     <row r="67" spans="2:21" s="40" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="322"/>
+      <c r="B67" s="391"/>
       <c r="C67" s="126" t="s">
         <v>61</v>
       </c>
@@ -10009,7 +10009,7 @@
       <c r="U67" s="172"/>
     </row>
     <row r="68" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="316" t="s">
+      <c r="B68" s="392" t="s">
         <v>446</v>
       </c>
       <c r="C68" s="131" t="s">
@@ -10051,7 +10051,7 @@
       <c r="U68" s="168"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B69" s="317"/>
+      <c r="B69" s="390"/>
       <c r="C69" s="137" t="s">
         <v>62</v>
       </c>
@@ -10091,7 +10091,7 @@
       </c>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B70" s="317"/>
+      <c r="B70" s="390"/>
       <c r="C70" s="137" t="s">
         <v>63</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="U70" s="113"/>
     </row>
     <row r="71" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="317"/>
+      <c r="B71" s="390"/>
       <c r="C71" s="44" t="s">
         <v>64</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="U71" s="113"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B72" s="317"/>
+      <c r="B72" s="390"/>
       <c r="C72" s="137" t="s">
         <v>65</v>
       </c>
@@ -10193,7 +10193,7 @@
       <c r="O72" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P72" s="298" t="s">
+      <c r="P72" s="397" t="s">
         <v>102</v>
       </c>
       <c r="Q72" s="179" t="s">
@@ -10203,13 +10203,13 @@
         <v>352</v>
       </c>
       <c r="S72" s="197"/>
-      <c r="T72" s="314" t="s">
+      <c r="T72" s="385" t="s">
         <v>108</v>
       </c>
       <c r="U72" s="113"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B73" s="317"/>
+      <c r="B73" s="390"/>
       <c r="C73" s="137" t="s">
         <v>66</v>
       </c>
@@ -10233,7 +10233,7 @@
       <c r="O73" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P73" s="298"/>
+      <c r="P73" s="397"/>
       <c r="Q73" s="179" t="s">
         <v>99</v>
       </c>
@@ -10241,11 +10241,11 @@
         <v>361</v>
       </c>
       <c r="S73" s="48"/>
-      <c r="T73" s="314"/>
+      <c r="T73" s="385"/>
       <c r="U73" s="113"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B74" s="317"/>
+      <c r="B74" s="390"/>
       <c r="C74" s="137" t="s">
         <v>67</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="O74" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P74" s="298"/>
+      <c r="P74" s="397"/>
       <c r="Q74" s="179" t="s">
         <v>367</v>
       </c>
@@ -10279,11 +10279,11 @@
         <v>368</v>
       </c>
       <c r="S74" s="48"/>
-      <c r="T74" s="314"/>
+      <c r="T74" s="385"/>
       <c r="U74" s="113"/>
     </row>
     <row r="75" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="317"/>
+      <c r="B75" s="390"/>
       <c r="C75" s="137" t="s">
         <v>68</v>
       </c>
@@ -10315,13 +10315,13 @@
         <v>462</v>
       </c>
       <c r="S75" s="49"/>
-      <c r="T75" s="307" t="s">
+      <c r="T75" s="386" t="s">
         <v>654</v>
       </c>
       <c r="U75" s="113"/>
     </row>
     <row r="76" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="317"/>
+      <c r="B76" s="390"/>
       <c r="C76" s="137" t="s">
         <v>69</v>
       </c>
@@ -10347,11 +10347,11 @@
       <c r="Q76" s="179"/>
       <c r="R76" s="62"/>
       <c r="S76" s="155"/>
-      <c r="T76" s="307"/>
+      <c r="T76" s="386"/>
       <c r="U76" s="113"/>
     </row>
     <row r="77" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="317"/>
+      <c r="B77" s="390"/>
       <c r="C77" s="137" t="s">
         <v>70</v>
       </c>
@@ -10383,11 +10383,11 @@
         <v>464</v>
       </c>
       <c r="S77" s="49"/>
-      <c r="T77" s="307"/>
+      <c r="T77" s="386"/>
       <c r="U77" s="113"/>
     </row>
     <row r="78" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="317"/>
+      <c r="B78" s="390"/>
       <c r="C78" s="44" t="s">
         <v>71</v>
       </c>
@@ -10421,11 +10421,11 @@
       <c r="S78" s="212" t="s">
         <v>628</v>
       </c>
-      <c r="T78" s="307"/>
+      <c r="T78" s="386"/>
       <c r="U78" s="113"/>
     </row>
     <row r="79" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="317"/>
+      <c r="B79" s="390"/>
       <c r="C79" s="104" t="s">
         <v>72</v>
       </c>
@@ -10451,7 +10451,7 @@
       <c r="O79" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P79" s="298" t="s">
+      <c r="P79" s="397" t="s">
         <v>466</v>
       </c>
       <c r="Q79" s="179" t="s">
@@ -10461,13 +10461,13 @@
         <v>467</v>
       </c>
       <c r="S79" s="49"/>
-      <c r="T79" s="307" t="s">
+      <c r="T79" s="386" t="s">
         <v>655</v>
       </c>
       <c r="U79" s="113"/>
     </row>
     <row r="80" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="317"/>
+      <c r="B80" s="390"/>
       <c r="C80" s="114" t="s">
         <v>73</v>
       </c>
@@ -10493,7 +10493,7 @@
       <c r="O80" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P80" s="298"/>
+      <c r="P80" s="397"/>
       <c r="Q80" s="179" t="s">
         <v>207</v>
       </c>
@@ -10501,11 +10501,11 @@
         <v>82</v>
       </c>
       <c r="S80" s="49"/>
-      <c r="T80" s="307"/>
+      <c r="T80" s="386"/>
       <c r="U80" s="113"/>
     </row>
     <row r="81" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="317"/>
+      <c r="B81" s="390"/>
       <c r="C81" s="114" t="s">
         <v>74</v>
       </c>
@@ -10529,7 +10529,7 @@
       <c r="O81" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P81" s="298"/>
+      <c r="P81" s="397"/>
       <c r="Q81" s="179" t="s">
         <v>99</v>
       </c>
@@ -10537,11 +10537,11 @@
         <v>83</v>
       </c>
       <c r="S81" s="49"/>
-      <c r="T81" s="307"/>
+      <c r="T81" s="386"/>
       <c r="U81" s="113"/>
     </row>
     <row r="82" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="317"/>
+      <c r="B82" s="390"/>
       <c r="C82" s="114" t="s">
         <v>75</v>
       </c>
@@ -10567,7 +10567,7 @@
       <c r="O82" s="179" t="s">
         <v>575</v>
       </c>
-      <c r="P82" s="298"/>
+      <c r="P82" s="397"/>
       <c r="Q82" s="179" t="s">
         <v>207</v>
       </c>
@@ -10575,11 +10575,11 @@
         <v>84</v>
       </c>
       <c r="S82" s="49"/>
-      <c r="T82" s="307"/>
+      <c r="T82" s="386"/>
       <c r="U82" s="113"/>
     </row>
     <row r="83" spans="2:21" s="40" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="318"/>
+      <c r="B83" s="393"/>
       <c r="C83" s="105" t="s">
         <v>76</v>
       </c>
@@ -10611,11 +10611,11 @@
         <v>472</v>
       </c>
       <c r="S83" s="133"/>
-      <c r="T83" s="326"/>
+      <c r="T83" s="396"/>
       <c r="U83" s="173"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B84" s="321" t="s">
+      <c r="B84" s="389" t="s">
         <v>473</v>
       </c>
       <c r="C84" s="47" t="s">
@@ -10643,13 +10643,13 @@
         <v>89</v>
       </c>
       <c r="S84" s="202"/>
-      <c r="T84" s="323" t="s">
+      <c r="T84" s="387" t="s">
         <v>424</v>
       </c>
       <c r="U84" s="159"/>
     </row>
     <row r="85" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="322"/>
+      <c r="B85" s="391"/>
       <c r="C85" s="126" t="s">
         <v>475</v>
       </c>
@@ -10675,11 +10675,11 @@
         <v>90</v>
       </c>
       <c r="S85" s="213"/>
-      <c r="T85" s="303"/>
+      <c r="T85" s="388"/>
       <c r="U85" s="172"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B86" s="300"/>
+      <c r="B86" s="401"/>
       <c r="C86" s="50" t="s">
         <v>638</v>
       </c>
@@ -10713,7 +10713,7 @@
       <c r="U86" s="168"/>
     </row>
     <row r="87" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="301"/>
+      <c r="B87" s="402"/>
       <c r="C87" s="12" t="s">
         <v>639</v>
       </c>
@@ -10880,25 +10880,11 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="41">
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="T64:T66"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="T44:T48"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="B52:B67"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="T60:T62"/>
-    <mergeCell ref="T32:T35"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T79:T83"/>
-    <mergeCell ref="P79:P82"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P44:P48"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="P72:P74"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="P26:P27"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="T2:T3"/>
@@ -10915,12 +10901,26 @@
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="T17:T18"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="B52:B67"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="T60:T62"/>
+    <mergeCell ref="T32:T35"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T79:T83"/>
+    <mergeCell ref="P79:P82"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P44:P48"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="P72:P74"/>
     <mergeCell ref="P29:P30"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="T64:T66"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="T44:T48"/>
+    <mergeCell ref="T84:T85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10938,7 +10938,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
+      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10956,10 +10956,10 @@
     <col min="13" max="13" width="10" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.75" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="142" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="331" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="293" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.625" style="142" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="332" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.625" style="332" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="294" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.625" style="294" customWidth="1"/>
     <col min="20" max="20" width="46.75" style="192" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" customWidth="1"/>
     <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
@@ -10979,8 +10979,8 @@
     <row r="2" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309" t="s">
+      <c r="C2" s="408"/>
+      <c r="D2" s="408" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="190"/>
@@ -10993,20 +10993,20 @@
       <c r="L2" s="151"/>
       <c r="M2" s="151"/>
       <c r="N2" s="151"/>
-      <c r="O2" s="346" t="s">
+      <c r="O2" s="415" t="s">
         <v>663</v>
       </c>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="348"/>
-      <c r="S2" s="350"/>
-      <c r="T2" s="312" t="s">
+      <c r="P2" s="416"/>
+      <c r="Q2" s="416"/>
+      <c r="R2" s="417"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="411" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
       <c r="E3" s="191"/>
       <c r="F3" s="181" t="s">
         <v>168</v>
@@ -11048,7 +11048,7 @@
         <v>642</v>
       </c>
       <c r="S3" s="195"/>
-      <c r="T3" s="313"/>
+      <c r="T3" s="412"/>
       <c r="W3" s="31" t="s">
         <v>179</v>
       </c>
@@ -11064,16 +11064,16 @@
     </row>
     <row r="4" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
-      <c r="B4" s="397">
+      <c r="B4" s="356">
         <v>67</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="357" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="398">
+      <c r="D4" s="357">
         <v>1</v>
       </c>
-      <c r="E4" s="398" t="s">
+      <c r="E4" s="357" t="s">
         <v>677</v>
       </c>
       <c r="F4" s="219"/>
@@ -11089,18 +11089,18 @@
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
       <c r="N4" s="108"/>
-      <c r="O4" s="401" t="s">
+      <c r="O4" s="360" t="s">
         <v>710</v>
       </c>
-      <c r="P4" s="402" t="s">
+      <c r="P4" s="361" t="s">
         <v>674</v>
       </c>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="403" t="s">
+      <c r="Q4" s="361"/>
+      <c r="R4" s="362" t="s">
         <v>711</v>
       </c>
-      <c r="S4" s="403"/>
-      <c r="T4" s="404"/>
+      <c r="S4" s="362"/>
+      <c r="T4" s="363"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" s="240"/>
@@ -11128,16 +11128,16 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
-      <c r="B5" s="399">
+      <c r="B5" s="358">
         <v>68</v>
       </c>
-      <c r="C5" s="400" t="s">
+      <c r="C5" s="359" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="400">
+      <c r="D5" s="359">
         <v>2</v>
       </c>
-      <c r="E5" s="400" t="s">
+      <c r="E5" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F5" s="152"/>
@@ -11149,18 +11149,18 @@
       <c r="L5" s="198"/>
       <c r="M5" s="198"/>
       <c r="N5" s="198"/>
-      <c r="O5" s="378" t="s">
+      <c r="O5" s="337" t="s">
         <v>712</v>
       </c>
       <c r="P5" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q5" s="280"/>
-      <c r="R5" s="405" t="s">
+      <c r="R5" s="364" t="s">
         <v>713</v>
       </c>
-      <c r="S5" s="405"/>
-      <c r="T5" s="406"/>
+      <c r="S5" s="364"/>
+      <c r="T5" s="365"/>
       <c r="U5" s="40"/>
       <c r="V5" s="40"/>
       <c r="W5" s="241"/>
@@ -11187,16 +11187,16 @@
       <c r="AR5" s="40"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B6" s="399">
+      <c r="B6" s="358">
         <v>69</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="359" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="400">
+      <c r="D6" s="359">
         <v>3</v>
       </c>
-      <c r="E6" s="400" t="s">
+      <c r="E6" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F6" s="220"/>
@@ -11212,34 +11212,34 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="378" t="s">
+      <c r="O6" s="337" t="s">
         <v>712</v>
       </c>
       <c r="P6" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q6" s="280"/>
-      <c r="R6" s="405" t="s">
+      <c r="R6" s="364" t="s">
         <v>714</v>
       </c>
-      <c r="S6" s="405"/>
-      <c r="T6" s="406"/>
+      <c r="S6" s="364"/>
+      <c r="T6" s="365"/>
       <c r="W6" s="243"/>
       <c r="X6" s="253"/>
       <c r="Y6" s="253"/>
       <c r="Z6" s="243"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B7" s="399">
+      <c r="B7" s="358">
         <v>70</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="400">
+      <c r="D7" s="359">
         <v>4</v>
       </c>
-      <c r="E7" s="400" t="s">
+      <c r="E7" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F7" s="220" t="s">
@@ -11255,34 +11255,34 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="378" t="s">
+      <c r="O7" s="337" t="s">
         <v>712</v>
       </c>
       <c r="P7" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q7" s="280"/>
-      <c r="R7" s="405" t="s">
+      <c r="R7" s="364" t="s">
         <v>715</v>
       </c>
-      <c r="S7" s="405"/>
-      <c r="T7" s="406"/>
+      <c r="S7" s="364"/>
+      <c r="T7" s="365"/>
       <c r="W7" s="243"/>
       <c r="X7" s="253"/>
       <c r="Y7" s="253"/>
       <c r="Z7" s="243"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B8" s="399">
+      <c r="B8" s="358">
         <v>71</v>
       </c>
-      <c r="C8" s="400" t="s">
+      <c r="C8" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="400">
+      <c r="D8" s="359">
         <v>5</v>
       </c>
-      <c r="E8" s="400" t="s">
+      <c r="E8" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F8" s="220" t="s">
@@ -11300,25 +11300,25 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="378" t="s">
+      <c r="O8" s="337" t="s">
         <v>712</v>
       </c>
       <c r="P8" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q8" s="280"/>
-      <c r="R8" s="405" t="s">
+      <c r="R8" s="364" t="s">
         <v>716</v>
       </c>
-      <c r="S8" s="405"/>
-      <c r="T8" s="406"/>
+      <c r="S8" s="364"/>
+      <c r="T8" s="365"/>
       <c r="W8" s="243"/>
       <c r="X8" s="253"/>
       <c r="Y8" s="253"/>
       <c r="Z8" s="243"/>
     </row>
     <row r="9" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="356"/>
+      <c r="B9" s="315"/>
       <c r="C9" s="183" t="s">
         <v>681</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="E9" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F9" s="329"/>
+      <c r="F9" s="291"/>
       <c r="G9" s="183"/>
       <c r="H9" s="183"/>
       <c r="I9" s="183"/>
@@ -11337,12 +11337,12 @@
       <c r="L9" s="183"/>
       <c r="M9" s="183"/>
       <c r="N9" s="183"/>
-      <c r="O9" s="330"/>
-      <c r="P9" s="330"/>
-      <c r="Q9" s="330"/>
-      <c r="R9" s="355"/>
-      <c r="S9" s="355"/>
-      <c r="T9" s="357"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="292"/>
+      <c r="Q9" s="292"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="316"/>
       <c r="W9" s="241"/>
       <c r="X9" s="251"/>
       <c r="Y9" s="251"/>
@@ -11350,7 +11350,7 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
-      <c r="B10" s="358">
+      <c r="B10" s="317">
         <v>46</v>
       </c>
       <c r="C10" s="198" t="s">
@@ -11374,8 +11374,8 @@
       <c r="O10" s="188"/>
       <c r="P10" s="188"/>
       <c r="Q10" s="188"/>
-      <c r="R10" s="333"/>
-      <c r="S10" s="333"/>
+      <c r="R10" s="295"/>
+      <c r="S10" s="295"/>
       <c r="T10" s="216"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
@@ -11403,7 +11403,7 @@
       <c r="AR10" s="40"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B11" s="365">
+      <c r="B11" s="324">
         <v>47</v>
       </c>
       <c r="C11" s="45" t="s">
@@ -11431,10 +11431,10 @@
       <c r="Q11" s="268" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="354" t="s">
+      <c r="R11" s="313" t="s">
         <v>423</v>
       </c>
-      <c r="S11" s="334"/>
+      <c r="S11" s="296"/>
       <c r="T11" s="277"/>
       <c r="W11" s="242"/>
       <c r="X11" s="252"/>
@@ -11442,7 +11442,7 @@
       <c r="Z11" s="242"/>
     </row>
     <row r="12" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="365">
+      <c r="B12" s="324">
         <v>48</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -11470,10 +11470,10 @@
       <c r="Q12" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="R12" s="354" t="s">
+      <c r="R12" s="313" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="334"/>
+      <c r="S12" s="296"/>
       <c r="T12" s="277"/>
       <c r="W12" s="249"/>
       <c r="X12" s="255"/>
@@ -11481,7 +11481,7 @@
       <c r="Z12" s="249"/>
     </row>
     <row r="13" spans="1:44" s="40" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="356"/>
+      <c r="B13" s="315"/>
       <c r="C13" s="183" t="s">
         <v>683</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="E13" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F13" s="329"/>
+      <c r="F13" s="291"/>
       <c r="G13" s="183"/>
       <c r="H13" s="183"/>
       <c r="I13" s="183"/>
@@ -11500,19 +11500,19 @@
       <c r="L13" s="183"/>
       <c r="M13" s="183"/>
       <c r="N13" s="183"/>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
-      <c r="Q13" s="330"/>
-      <c r="R13" s="355"/>
-      <c r="S13" s="355"/>
-      <c r="T13" s="357"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="292"/>
+      <c r="Q13" s="292"/>
+      <c r="R13" s="314"/>
+      <c r="S13" s="314"/>
+      <c r="T13" s="316"/>
       <c r="W13" s="241"/>
       <c r="X13" s="251"/>
       <c r="Y13" s="251"/>
       <c r="Z13" s="241"/>
     </row>
     <row r="14" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="356"/>
+      <c r="B14" s="315"/>
       <c r="C14" s="183" t="s">
         <v>684</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="E14" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F14" s="329"/>
+      <c r="F14" s="291"/>
       <c r="G14" s="183"/>
       <c r="H14" s="183"/>
       <c r="I14" s="183"/>
@@ -11531,19 +11531,19 @@
       <c r="L14" s="183"/>
       <c r="M14" s="183"/>
       <c r="N14" s="183"/>
-      <c r="O14" s="330"/>
-      <c r="P14" s="330"/>
-      <c r="Q14" s="330"/>
-      <c r="R14" s="355"/>
-      <c r="S14" s="355"/>
-      <c r="T14" s="357"/>
+      <c r="O14" s="292"/>
+      <c r="P14" s="292"/>
+      <c r="Q14" s="292"/>
+      <c r="R14" s="314"/>
+      <c r="S14" s="314"/>
+      <c r="T14" s="316"/>
       <c r="W14" s="241"/>
       <c r="X14" s="251"/>
       <c r="Y14" s="251"/>
       <c r="Z14" s="241"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B15" s="365">
+      <c r="B15" s="324">
         <v>81</v>
       </c>
       <c r="C15" s="45" t="s">
@@ -11571,10 +11571,10 @@
       <c r="Q15" s="268" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="354" t="s">
+      <c r="R15" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="S15" s="334"/>
+      <c r="S15" s="296"/>
       <c r="T15" s="277"/>
       <c r="W15" s="242"/>
       <c r="X15" s="250"/>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="16" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
-      <c r="B16" s="365">
+      <c r="B16" s="324">
         <v>82</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -11611,10 +11611,10 @@
       <c r="Q16" s="268" t="s">
         <v>367</v>
       </c>
-      <c r="R16" s="354" t="s">
+      <c r="R16" s="313" t="s">
         <v>90</v>
       </c>
-      <c r="S16" s="334"/>
+      <c r="S16" s="296"/>
       <c r="T16" s="277"/>
       <c r="U16"/>
       <c r="V16"/>
@@ -11642,7 +11642,7 @@
       <c r="AR16"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B17" s="365">
+      <c r="B17" s="324">
         <v>83</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -11670,10 +11670,10 @@
       <c r="Q17" s="268" t="s">
         <v>197</v>
       </c>
-      <c r="R17" s="366" t="s">
+      <c r="R17" s="325" t="s">
         <v>638</v>
       </c>
-      <c r="S17" s="366"/>
+      <c r="S17" s="325"/>
       <c r="T17" s="277"/>
       <c r="W17" s="243"/>
       <c r="X17" s="253"/>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
-      <c r="B18" s="358">
+      <c r="B18" s="317">
         <v>33</v>
       </c>
       <c r="C18" s="198" t="s">
@@ -11710,8 +11710,8 @@
       </c>
       <c r="P18" s="188"/>
       <c r="Q18" s="188"/>
-      <c r="R18" s="335"/>
-      <c r="S18" s="335"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="297"/>
       <c r="T18" s="263"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
@@ -11739,7 +11739,7 @@
       <c r="AR18" s="40"/>
     </row>
     <row r="19" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="358">
+      <c r="B19" s="317">
         <v>34</v>
       </c>
       <c r="C19" s="198" t="s">
@@ -11767,8 +11767,8 @@
       </c>
       <c r="P19" s="188"/>
       <c r="Q19" s="188"/>
-      <c r="R19" s="335"/>
-      <c r="S19" s="335"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="297"/>
       <c r="T19" s="263"/>
       <c r="W19" s="246"/>
       <c r="X19" s="254"/>
@@ -11776,7 +11776,7 @@
       <c r="Z19" s="257"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B20" s="358">
+      <c r="B20" s="317">
         <v>35</v>
       </c>
       <c r="C20" s="198" t="s">
@@ -11808,12 +11808,12 @@
       </c>
       <c r="P20" s="188"/>
       <c r="Q20" s="188"/>
-      <c r="R20" s="335"/>
-      <c r="S20" s="335"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="297"/>
       <c r="T20" s="263"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B21" s="358">
+      <c r="B21" s="317">
         <v>36</v>
       </c>
       <c r="C21" s="198" t="s">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="P21" s="188"/>
       <c r="Q21" s="188"/>
-      <c r="R21" s="335"/>
-      <c r="S21" s="335"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="297"/>
       <c r="T21" s="263"/>
     </row>
     <row r="22" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="356"/>
+      <c r="B22" s="315"/>
       <c r="C22" s="183" t="s">
         <v>684</v>
       </c>
@@ -11860,7 +11860,7 @@
       <c r="E22" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F22" s="329"/>
+      <c r="F22" s="291"/>
       <c r="G22" s="183"/>
       <c r="H22" s="183"/>
       <c r="I22" s="183"/>
@@ -11869,19 +11869,19 @@
       <c r="L22" s="183"/>
       <c r="M22" s="183"/>
       <c r="N22" s="183"/>
-      <c r="O22" s="330"/>
-      <c r="P22" s="330"/>
-      <c r="Q22" s="330"/>
-      <c r="R22" s="355"/>
-      <c r="S22" s="355"/>
-      <c r="T22" s="357"/>
+      <c r="O22" s="292"/>
+      <c r="P22" s="292"/>
+      <c r="Q22" s="292"/>
+      <c r="R22" s="314"/>
+      <c r="S22" s="314"/>
+      <c r="T22" s="316"/>
       <c r="W22" s="241"/>
       <c r="X22" s="251"/>
       <c r="Y22" s="251"/>
       <c r="Z22" s="241"/>
     </row>
     <row r="23" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="356"/>
+      <c r="B23" s="315"/>
       <c r="C23" s="183" t="s">
         <v>685</v>
       </c>
@@ -11891,7 +11891,7 @@
       <c r="E23" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F23" s="329"/>
+      <c r="F23" s="291"/>
       <c r="G23" s="183"/>
       <c r="H23" s="183"/>
       <c r="I23" s="183"/>
@@ -11900,19 +11900,19 @@
       <c r="L23" s="183"/>
       <c r="M23" s="183"/>
       <c r="N23" s="183"/>
-      <c r="O23" s="330"/>
-      <c r="P23" s="330"/>
-      <c r="Q23" s="330"/>
-      <c r="R23" s="355"/>
-      <c r="S23" s="355"/>
-      <c r="T23" s="357"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="292"/>
+      <c r="Q23" s="292"/>
+      <c r="R23" s="314"/>
+      <c r="S23" s="314"/>
+      <c r="T23" s="316"/>
       <c r="W23" s="241"/>
       <c r="X23" s="251"/>
       <c r="Y23" s="251"/>
       <c r="Z23" s="241"/>
     </row>
     <row r="24" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="356"/>
+      <c r="B24" s="315"/>
       <c r="C24" s="183" t="s">
         <v>686</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="E24" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F24" s="329"/>
+      <c r="F24" s="291"/>
       <c r="G24" s="183"/>
       <c r="H24" s="183"/>
       <c r="I24" s="183"/>
@@ -11931,19 +11931,19 @@
       <c r="L24" s="183"/>
       <c r="M24" s="183"/>
       <c r="N24" s="183"/>
-      <c r="O24" s="330"/>
-      <c r="P24" s="330"/>
-      <c r="Q24" s="330"/>
-      <c r="R24" s="355"/>
-      <c r="S24" s="355"/>
-      <c r="T24" s="357"/>
+      <c r="O24" s="292"/>
+      <c r="P24" s="292"/>
+      <c r="Q24" s="292"/>
+      <c r="R24" s="314"/>
+      <c r="S24" s="314"/>
+      <c r="T24" s="316"/>
       <c r="W24" s="241"/>
       <c r="X24" s="251"/>
       <c r="Y24" s="251"/>
       <c r="Z24" s="241"/>
     </row>
     <row r="25" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="356"/>
+      <c r="B25" s="315"/>
       <c r="C25" s="183" t="s">
         <v>687</v>
       </c>
@@ -11953,7 +11953,7 @@
       <c r="E25" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F25" s="329"/>
+      <c r="F25" s="291"/>
       <c r="G25" s="183"/>
       <c r="H25" s="183"/>
       <c r="I25" s="183"/>
@@ -11962,12 +11962,12 @@
       <c r="L25" s="183"/>
       <c r="M25" s="183"/>
       <c r="N25" s="183"/>
-      <c r="O25" s="330"/>
-      <c r="P25" s="330"/>
-      <c r="Q25" s="330"/>
-      <c r="R25" s="355"/>
-      <c r="S25" s="355"/>
-      <c r="T25" s="357"/>
+      <c r="O25" s="292"/>
+      <c r="P25" s="292"/>
+      <c r="Q25" s="292"/>
+      <c r="R25" s="314"/>
+      <c r="S25" s="314"/>
+      <c r="T25" s="316"/>
       <c r="W25" s="241"/>
       <c r="X25" s="251"/>
       <c r="Y25" s="251"/>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="358">
+      <c r="B26" s="317">
         <v>1</v>
       </c>
       <c r="C26" s="198" t="s">
@@ -12007,8 +12007,8 @@
       </c>
       <c r="P26" s="188"/>
       <c r="Q26" s="239"/>
-      <c r="R26" s="335"/>
-      <c r="S26" s="335"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="297"/>
       <c r="T26" s="264"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
@@ -12045,16 +12045,16 @@
     </row>
     <row r="27" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
-      <c r="B27" s="381">
+      <c r="B27" s="340">
         <v>2</v>
       </c>
-      <c r="C27" s="382" t="s">
+      <c r="C27" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="382">
+      <c r="D27" s="341">
         <v>24</v>
       </c>
-      <c r="E27" s="382" t="s">
+      <c r="E27" s="341" t="s">
         <v>678</v>
       </c>
       <c r="F27" s="220" t="s">
@@ -12076,19 +12076,19 @@
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="387" t="s">
+      <c r="O27" s="346" t="s">
         <v>575</v>
       </c>
       <c r="P27" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="Q27" s="375" t="s">
+      <c r="Q27" s="334" t="s">
         <v>192</v>
       </c>
-      <c r="R27" s="336" t="s">
+      <c r="R27" s="298" t="s">
         <v>702</v>
       </c>
-      <c r="S27" s="336"/>
+      <c r="S27" s="298"/>
       <c r="T27" s="275"/>
       <c r="U27"/>
       <c r="V27"/>
@@ -12125,16 +12125,16 @@
     </row>
     <row r="28" spans="1:44" s="40" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28"/>
-      <c r="B28" s="383">
+      <c r="B28" s="342">
         <v>3</v>
       </c>
-      <c r="C28" s="384" t="s">
+      <c r="C28" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="384">
+      <c r="D28" s="343">
         <v>25</v>
       </c>
-      <c r="E28" s="384" t="s">
+      <c r="E28" s="343" t="s">
         <v>678</v>
       </c>
       <c r="F28" s="221" t="s">
@@ -12154,20 +12154,20 @@
       </c>
       <c r="M28" s="107"/>
       <c r="N28" s="107"/>
-      <c r="O28" s="388" t="s">
+      <c r="O28" s="347" t="s">
         <v>575</v>
       </c>
-      <c r="P28" s="367" t="s">
+      <c r="P28" s="326" t="s">
         <v>669</v>
       </c>
-      <c r="Q28" s="376" t="s">
+      <c r="Q28" s="335" t="s">
         <v>203</v>
       </c>
-      <c r="R28" s="368" t="s">
+      <c r="R28" s="327" t="s">
         <v>703</v>
       </c>
-      <c r="S28" s="368"/>
-      <c r="T28" s="369"/>
+      <c r="S28" s="327"/>
+      <c r="T28" s="328"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28" s="244" t="s">
@@ -12203,16 +12203,16 @@
     </row>
     <row r="29" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
-      <c r="B29" s="385">
+      <c r="B29" s="344">
         <v>4</v>
       </c>
-      <c r="C29" s="386" t="s">
+      <c r="C29" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="386">
+      <c r="D29" s="345">
         <v>26</v>
       </c>
-      <c r="E29" s="386" t="s">
+      <c r="E29" s="345" t="s">
         <v>678</v>
       </c>
       <c r="F29" s="219" t="s">
@@ -12232,19 +12232,19 @@
       </c>
       <c r="M29" s="108"/>
       <c r="N29" s="108"/>
-      <c r="O29" s="389" t="s">
+      <c r="O29" s="348" t="s">
         <v>575</v>
       </c>
       <c r="P29" s="273" t="s">
         <v>669</v>
       </c>
-      <c r="Q29" s="377" t="s">
+      <c r="Q29" s="336" t="s">
         <v>212</v>
       </c>
-      <c r="R29" s="338" t="s">
+      <c r="R29" s="300" t="s">
         <v>704</v>
       </c>
-      <c r="S29" s="338"/>
+      <c r="S29" s="300"/>
       <c r="T29" s="274"/>
       <c r="U29"/>
       <c r="V29"/>
@@ -12280,7 +12280,7 @@
       <c r="AR29"/>
     </row>
     <row r="30" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="356"/>
+      <c r="B30" s="315"/>
       <c r="C30" s="183" t="s">
         <v>683</v>
       </c>
@@ -12290,7 +12290,7 @@
       <c r="E30" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F30" s="329"/>
+      <c r="F30" s="291"/>
       <c r="G30" s="183"/>
       <c r="H30" s="183"/>
       <c r="I30" s="183"/>
@@ -12299,19 +12299,19 @@
       <c r="L30" s="183"/>
       <c r="M30" s="183"/>
       <c r="N30" s="183"/>
-      <c r="O30" s="330"/>
-      <c r="P30" s="330"/>
+      <c r="O30" s="292"/>
+      <c r="P30" s="292"/>
       <c r="Q30" s="183"/>
-      <c r="R30" s="355"/>
-      <c r="S30" s="355"/>
-      <c r="T30" s="357"/>
+      <c r="R30" s="314"/>
+      <c r="S30" s="314"/>
+      <c r="T30" s="316"/>
       <c r="W30" s="241"/>
       <c r="X30" s="251"/>
       <c r="Y30" s="251"/>
       <c r="Z30" s="241"/>
     </row>
     <row r="31" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="356"/>
+      <c r="B31" s="315"/>
       <c r="C31" s="183" t="s">
         <v>684</v>
       </c>
@@ -12321,7 +12321,7 @@
       <c r="E31" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F31" s="329"/>
+      <c r="F31" s="291"/>
       <c r="G31" s="183"/>
       <c r="H31" s="183"/>
       <c r="I31" s="183"/>
@@ -12330,19 +12330,19 @@
       <c r="L31" s="183"/>
       <c r="M31" s="183"/>
       <c r="N31" s="183"/>
-      <c r="O31" s="330"/>
-      <c r="P31" s="330"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="292"/>
       <c r="Q31" s="183"/>
-      <c r="R31" s="355"/>
-      <c r="S31" s="355"/>
-      <c r="T31" s="357"/>
+      <c r="R31" s="314"/>
+      <c r="S31" s="314"/>
+      <c r="T31" s="316"/>
       <c r="W31" s="241"/>
       <c r="X31" s="251"/>
       <c r="Y31" s="251"/>
       <c r="Z31" s="241"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B32" s="358">
+      <c r="B32" s="317">
         <v>5</v>
       </c>
       <c r="C32" s="198" t="s">
@@ -12376,8 +12376,8 @@
       </c>
       <c r="P32" s="188"/>
       <c r="Q32" s="188"/>
-      <c r="R32" s="335"/>
-      <c r="S32" s="335"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="297"/>
       <c r="T32" s="262"/>
       <c r="W32" s="244" t="s">
         <v>224</v>
@@ -12393,7 +12393,7 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B33" s="358">
+      <c r="B33" s="317">
         <v>6</v>
       </c>
       <c r="C33" s="198" t="s">
@@ -12427,8 +12427,8 @@
       </c>
       <c r="P33" s="188"/>
       <c r="Q33" s="188"/>
-      <c r="R33" s="335"/>
-      <c r="S33" s="335"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="297"/>
       <c r="T33" s="263"/>
       <c r="W33" s="244" t="s">
         <v>231</v>
@@ -12445,16 +12445,16 @@
     </row>
     <row r="34" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
-      <c r="B34" s="381">
+      <c r="B34" s="340">
         <v>7</v>
       </c>
-      <c r="C34" s="382" t="s">
+      <c r="C34" s="341" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="382">
+      <c r="D34" s="341">
         <v>31</v>
       </c>
-      <c r="E34" s="382" t="s">
+      <c r="E34" s="341" t="s">
         <v>678</v>
       </c>
       <c r="F34" s="220" t="s">
@@ -12476,19 +12476,19 @@
       <c r="N34" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="O34" s="387" t="s">
+      <c r="O34" s="346" t="s">
         <v>575</v>
       </c>
       <c r="P34" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="Q34" s="375" t="s">
+      <c r="Q34" s="334" t="s">
         <v>234</v>
       </c>
-      <c r="R34" s="337" t="s">
+      <c r="R34" s="299" t="s">
         <v>705</v>
       </c>
-      <c r="S34" s="337"/>
+      <c r="S34" s="299"/>
       <c r="T34" s="275"/>
       <c r="U34"/>
       <c r="V34"/>
@@ -12524,16 +12524,16 @@
       <c r="AR34"/>
     </row>
     <row r="35" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="381">
+      <c r="B35" s="340">
         <v>8</v>
       </c>
-      <c r="C35" s="382" t="s">
+      <c r="C35" s="341" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="382">
+      <c r="D35" s="341">
         <v>32</v>
       </c>
-      <c r="E35" s="382" t="s">
+      <c r="E35" s="341" t="s">
         <v>678</v>
       </c>
       <c r="F35" s="220" t="s">
@@ -12553,19 +12553,19 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="387" t="s">
+      <c r="O35" s="346" t="s">
         <v>575</v>
       </c>
       <c r="P35" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="Q35" s="375" t="s">
+      <c r="Q35" s="334" t="s">
         <v>241</v>
       </c>
-      <c r="R35" s="337" t="s">
+      <c r="R35" s="299" t="s">
         <v>706</v>
       </c>
-      <c r="S35" s="337"/>
+      <c r="S35" s="299"/>
       <c r="T35" s="275"/>
       <c r="W35" s="248" t="s">
         <v>245</v>
@@ -12582,16 +12582,16 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
-      <c r="B36" s="381">
+      <c r="B36" s="340">
         <v>37</v>
       </c>
-      <c r="C36" s="382" t="s">
+      <c r="C36" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="382">
+      <c r="D36" s="341">
         <v>33</v>
       </c>
-      <c r="E36" s="382" t="s">
+      <c r="E36" s="341" t="s">
         <v>678</v>
       </c>
       <c r="F36" s="220"/>
@@ -12605,19 +12605,19 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
-      <c r="O36" s="387" t="s">
+      <c r="O36" s="346" t="s">
         <v>575</v>
       </c>
       <c r="P36" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="Q36" s="375" t="s">
+      <c r="Q36" s="334" t="s">
         <v>388</v>
       </c>
-      <c r="R36" s="337" t="s">
+      <c r="R36" s="299" t="s">
         <v>708</v>
       </c>
-      <c r="S36" s="337"/>
+      <c r="S36" s="299"/>
       <c r="T36" s="275"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40"/>
@@ -12645,16 +12645,16 @@
       <c r="AR36" s="40"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B37" s="381">
+      <c r="B37" s="340">
         <v>38</v>
       </c>
-      <c r="C37" s="382" t="s">
+      <c r="C37" s="341" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="382">
+      <c r="D37" s="341">
         <v>34</v>
       </c>
-      <c r="E37" s="382" t="s">
+      <c r="E37" s="341" t="s">
         <v>678</v>
       </c>
       <c r="F37" s="220"/>
@@ -12668,33 +12668,33 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="387" t="s">
+      <c r="O37" s="346" t="s">
         <v>575</v>
       </c>
       <c r="P37" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="Q37" s="375" t="s">
+      <c r="Q37" s="334" t="s">
         <v>389</v>
       </c>
-      <c r="R37" s="337" t="s">
+      <c r="R37" s="299" t="s">
         <v>709</v>
       </c>
-      <c r="S37" s="337"/>
+      <c r="S37" s="299"/>
       <c r="T37" s="275"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
-      <c r="B38" s="381">
+      <c r="B38" s="340">
         <v>17</v>
       </c>
-      <c r="C38" s="382" t="s">
+      <c r="C38" s="341" t="s">
         <v>294</v>
       </c>
-      <c r="D38" s="382">
+      <c r="D38" s="341">
         <v>35</v>
       </c>
-      <c r="E38" s="382" t="s">
+      <c r="E38" s="341" t="s">
         <v>678</v>
       </c>
       <c r="F38" s="220" t="s">
@@ -12714,19 +12714,19 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="387" t="s">
+      <c r="O38" s="346" t="s">
         <v>575</v>
       </c>
       <c r="P38" s="129" t="s">
         <v>669</v>
       </c>
-      <c r="Q38" s="375" t="s">
+      <c r="Q38" s="334" t="s">
         <v>296</v>
       </c>
-      <c r="R38" s="337" t="s">
+      <c r="R38" s="299" t="s">
         <v>707</v>
       </c>
-      <c r="S38" s="337"/>
+      <c r="S38" s="299"/>
       <c r="T38" s="275"/>
       <c r="U38" s="40"/>
       <c r="V38" s="40"/>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
-      <c r="B39" s="358">
+      <c r="B39" s="317">
         <v>18</v>
       </c>
       <c r="C39" s="198" t="s">
@@ -12789,8 +12789,8 @@
       </c>
       <c r="P39" s="188"/>
       <c r="Q39" s="188"/>
-      <c r="R39" s="335"/>
-      <c r="S39" s="335"/>
+      <c r="R39" s="297"/>
+      <c r="S39" s="297"/>
       <c r="T39" s="263"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
-      <c r="B40" s="358">
+      <c r="B40" s="317">
         <v>19</v>
       </c>
       <c r="C40" s="198" t="s">
@@ -12845,8 +12845,8 @@
       </c>
       <c r="P40" s="188"/>
       <c r="Q40" s="188"/>
-      <c r="R40" s="335"/>
-      <c r="S40" s="335"/>
+      <c r="R40" s="297"/>
+      <c r="S40" s="297"/>
       <c r="T40" s="263"/>
       <c r="U40" s="40"/>
       <c r="V40" s="40"/>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
-      <c r="B41" s="358">
+      <c r="B41" s="317">
         <v>72</v>
       </c>
       <c r="C41" s="198" t="s">
@@ -12903,8 +12903,8 @@
       </c>
       <c r="P41" s="188"/>
       <c r="Q41" s="188"/>
-      <c r="R41" s="335"/>
-      <c r="S41" s="335"/>
+      <c r="R41" s="297"/>
+      <c r="S41" s="297"/>
       <c r="T41" s="263"/>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
-      <c r="B42" s="358">
+      <c r="B42" s="317">
         <v>73</v>
       </c>
       <c r="C42" s="198" t="s">
@@ -12961,8 +12961,8 @@
       </c>
       <c r="P42" s="188"/>
       <c r="Q42" s="188"/>
-      <c r="R42" s="335"/>
-      <c r="S42" s="335"/>
+      <c r="R42" s="297"/>
+      <c r="S42" s="297"/>
       <c r="T42" s="263"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
-      <c r="B43" s="358">
+      <c r="B43" s="317">
         <v>74</v>
       </c>
       <c r="C43" s="198" t="s">
@@ -13019,8 +13019,8 @@
       </c>
       <c r="P43" s="188"/>
       <c r="Q43" s="188"/>
-      <c r="R43" s="335"/>
-      <c r="S43" s="335"/>
+      <c r="R43" s="297"/>
+      <c r="S43" s="297"/>
       <c r="T43" s="263"/>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
-      <c r="B44" s="358">
+      <c r="B44" s="317">
         <v>75</v>
       </c>
       <c r="C44" s="198" t="s">
@@ -13077,8 +13077,8 @@
       </c>
       <c r="P44" s="188"/>
       <c r="Q44" s="188"/>
-      <c r="R44" s="335"/>
-      <c r="S44" s="335"/>
+      <c r="R44" s="297"/>
+      <c r="S44" s="297"/>
       <c r="T44" s="263"/>
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
@@ -13106,16 +13106,16 @@
       <c r="AR44" s="40"/>
     </row>
     <row r="45" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="390">
+      <c r="B45" s="349">
         <v>76</v>
       </c>
-      <c r="C45" s="391" t="s">
+      <c r="C45" s="350" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="392">
+      <c r="D45" s="351">
         <v>42</v>
       </c>
-      <c r="E45" s="392" t="s">
+      <c r="E45" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F45" s="220" t="s">
@@ -13133,31 +13133,31 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
-      <c r="O45" s="393" t="s">
+      <c r="O45" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P45" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q45" s="266"/>
-      <c r="R45" s="339" t="s">
+      <c r="R45" s="301" t="s">
         <v>717</v>
       </c>
-      <c r="S45" s="339"/>
+      <c r="S45" s="301"/>
       <c r="T45" s="271"/>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
-      <c r="B46" s="390">
+      <c r="B46" s="349">
         <v>77</v>
       </c>
       <c r="C46" s="266" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="392">
+      <c r="D46" s="351">
         <v>43</v>
       </c>
-      <c r="E46" s="392" t="s">
+      <c r="E46" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F46" s="220" t="s">
@@ -13175,17 +13175,17 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="393" t="s">
+      <c r="O46" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P46" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q46" s="266"/>
-      <c r="R46" s="340" t="s">
+      <c r="R46" s="302" t="s">
         <v>718</v>
       </c>
-      <c r="S46" s="340"/>
+      <c r="S46" s="302"/>
       <c r="T46" s="272"/>
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
@@ -13214,16 +13214,16 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
-      <c r="B47" s="390">
+      <c r="B47" s="349">
         <v>78</v>
       </c>
       <c r="C47" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="392">
+      <c r="D47" s="351">
         <v>44</v>
       </c>
-      <c r="E47" s="392" t="s">
+      <c r="E47" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F47" s="220" t="s">
@@ -13239,17 +13239,17 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="393" t="s">
+      <c r="O47" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P47" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q47" s="266"/>
-      <c r="R47" s="339" t="s">
+      <c r="R47" s="301" t="s">
         <v>719</v>
       </c>
-      <c r="S47" s="339"/>
+      <c r="S47" s="301"/>
       <c r="T47" s="272"/>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
@@ -13278,16 +13278,16 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
-      <c r="B48" s="390">
+      <c r="B48" s="349">
         <v>79</v>
       </c>
       <c r="C48" s="266" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="392">
+      <c r="D48" s="351">
         <v>45</v>
       </c>
-      <c r="E48" s="392" t="s">
+      <c r="E48" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F48" s="220" t="s">
@@ -13305,17 +13305,17 @@
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
-      <c r="O48" s="393" t="s">
+      <c r="O48" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P48" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q48" s="266"/>
-      <c r="R48" s="339" t="s">
+      <c r="R48" s="301" t="s">
         <v>720</v>
       </c>
-      <c r="S48" s="339"/>
+      <c r="S48" s="301"/>
       <c r="T48" s="282"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
@@ -13343,16 +13343,16 @@
       <c r="AR48" s="40"/>
     </row>
     <row r="49" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="390">
+      <c r="B49" s="349">
         <v>80</v>
       </c>
       <c r="C49" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="392">
+      <c r="D49" s="351">
         <v>46</v>
       </c>
-      <c r="E49" s="392" t="s">
+      <c r="E49" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F49" s="220" t="s">
@@ -13366,30 +13366,30 @@
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
-      <c r="O49" s="393" t="s">
+      <c r="O49" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P49" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q49" s="266"/>
-      <c r="R49" s="339" t="s">
+      <c r="R49" s="301" t="s">
         <v>721</v>
       </c>
-      <c r="S49" s="339"/>
+      <c r="S49" s="301"/>
       <c r="T49" s="282"/>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B50" s="390">
+      <c r="B50" s="349">
         <v>27</v>
       </c>
-      <c r="C50" s="392" t="s">
+      <c r="C50" s="351" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="392">
+      <c r="D50" s="351">
         <v>47</v>
       </c>
-      <c r="E50" s="392" t="s">
+      <c r="E50" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F50" s="220" t="s">
@@ -13411,21 +13411,21 @@
       <c r="N50" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="O50" s="393" t="s">
+      <c r="O50" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P50" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q50" s="266"/>
-      <c r="R50" s="339" t="s">
+      <c r="R50" s="301" t="s">
         <v>722</v>
       </c>
-      <c r="S50" s="339"/>
+      <c r="S50" s="301"/>
       <c r="T50" s="282"/>
     </row>
     <row r="51" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="356"/>
+      <c r="B51" s="315"/>
       <c r="C51" s="183" t="s">
         <v>688</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="E51" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F51" s="329"/>
+      <c r="F51" s="291"/>
       <c r="G51" s="183"/>
       <c r="H51" s="183"/>
       <c r="I51" s="183"/>
@@ -13444,19 +13444,19 @@
       <c r="L51" s="183"/>
       <c r="M51" s="183"/>
       <c r="N51" s="183"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="355"/>
-      <c r="S51" s="355"/>
-      <c r="T51" s="357"/>
+      <c r="O51" s="292"/>
+      <c r="P51" s="292"/>
+      <c r="Q51" s="292"/>
+      <c r="R51" s="314"/>
+      <c r="S51" s="314"/>
+      <c r="T51" s="316"/>
       <c r="W51" s="241"/>
       <c r="X51" s="251"/>
       <c r="Y51" s="251"/>
       <c r="Z51" s="241"/>
     </row>
     <row r="52" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="356"/>
+      <c r="B52" s="315"/>
       <c r="C52" s="183" t="s">
         <v>683</v>
       </c>
@@ -13466,7 +13466,7 @@
       <c r="E52" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F52" s="329"/>
+      <c r="F52" s="291"/>
       <c r="G52" s="183"/>
       <c r="H52" s="183"/>
       <c r="I52" s="183"/>
@@ -13475,59 +13475,59 @@
       <c r="L52" s="183"/>
       <c r="M52" s="183"/>
       <c r="N52" s="183"/>
-      <c r="O52" s="330"/>
-      <c r="P52" s="330"/>
-      <c r="Q52" s="330"/>
-      <c r="R52" s="355"/>
-      <c r="S52" s="355"/>
-      <c r="T52" s="357"/>
+      <c r="O52" s="292"/>
+      <c r="P52" s="292"/>
+      <c r="Q52" s="292"/>
+      <c r="R52" s="314"/>
+      <c r="S52" s="314"/>
+      <c r="T52" s="316"/>
       <c r="W52" s="241"/>
       <c r="X52" s="251"/>
       <c r="Y52" s="251"/>
       <c r="Z52" s="241"/>
     </row>
     <row r="53" spans="1:44" s="40" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="359"/>
-      <c r="C53" s="360" t="s">
+      <c r="B53" s="318"/>
+      <c r="C53" s="319" t="s">
         <v>684</v>
       </c>
-      <c r="D53" s="360">
+      <c r="D53" s="319">
         <v>50</v>
       </c>
-      <c r="E53" s="360" t="s">
+      <c r="E53" s="319" t="s">
         <v>682</v>
       </c>
-      <c r="F53" s="361"/>
-      <c r="G53" s="360"/>
-      <c r="H53" s="360"/>
-      <c r="I53" s="360"/>
-      <c r="J53" s="360"/>
-      <c r="K53" s="360"/>
-      <c r="L53" s="360"/>
-      <c r="M53" s="360"/>
-      <c r="N53" s="360"/>
-      <c r="O53" s="362"/>
-      <c r="P53" s="362"/>
-      <c r="Q53" s="362"/>
-      <c r="R53" s="363"/>
-      <c r="S53" s="363"/>
-      <c r="T53" s="364"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="319"/>
+      <c r="H53" s="319"/>
+      <c r="I53" s="319"/>
+      <c r="J53" s="319"/>
+      <c r="K53" s="319"/>
+      <c r="L53" s="319"/>
+      <c r="M53" s="319"/>
+      <c r="N53" s="319"/>
+      <c r="O53" s="321"/>
+      <c r="P53" s="321"/>
+      <c r="Q53" s="321"/>
+      <c r="R53" s="322"/>
+      <c r="S53" s="322"/>
+      <c r="T53" s="323"/>
       <c r="W53" s="241"/>
       <c r="X53" s="251"/>
       <c r="Y53" s="251"/>
       <c r="Z53" s="241"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B54" s="394">
+      <c r="B54" s="353">
         <v>29</v>
       </c>
-      <c r="C54" s="395" t="s">
+      <c r="C54" s="354" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="395">
+      <c r="D54" s="354">
         <v>51</v>
       </c>
-      <c r="E54" s="395" t="s">
+      <c r="E54" s="354" t="s">
         <v>678</v>
       </c>
       <c r="F54" s="219" t="s">
@@ -13547,31 +13547,31 @@
       <c r="L54" s="237"/>
       <c r="M54" s="237"/>
       <c r="N54" s="237"/>
-      <c r="O54" s="396" t="s">
+      <c r="O54" s="355" t="s">
         <v>575</v>
       </c>
-      <c r="P54" s="370" t="s">
+      <c r="P54" s="329" t="s">
         <v>673</v>
       </c>
-      <c r="Q54" s="370"/>
-      <c r="R54" s="371" t="s">
+      <c r="Q54" s="329"/>
+      <c r="R54" s="330" t="s">
         <v>723</v>
       </c>
-      <c r="S54" s="371"/>
-      <c r="T54" s="372"/>
+      <c r="S54" s="330"/>
+      <c r="T54" s="331"/>
       <c r="W54" s="258"/>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B55" s="390">
+      <c r="B55" s="349">
         <v>30</v>
       </c>
-      <c r="C55" s="392" t="s">
+      <c r="C55" s="351" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="392">
+      <c r="D55" s="351">
         <v>52</v>
       </c>
-      <c r="E55" s="392" t="s">
+      <c r="E55" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F55" s="220" t="s">
@@ -13589,31 +13589,31 @@
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
-      <c r="O55" s="393" t="s">
+      <c r="O55" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P55" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q55" s="266"/>
-      <c r="R55" s="339" t="s">
+      <c r="R55" s="301" t="s">
         <v>724</v>
       </c>
-      <c r="S55" s="339"/>
+      <c r="S55" s="301"/>
       <c r="T55" s="282"/>
       <c r="W55" s="258"/>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B56" s="390">
+      <c r="B56" s="349">
         <v>31</v>
       </c>
-      <c r="C56" s="392" t="s">
+      <c r="C56" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="392">
+      <c r="D56" s="351">
         <v>53</v>
       </c>
-      <c r="E56" s="392" t="s">
+      <c r="E56" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F56" s="220" t="s">
@@ -13633,30 +13633,30 @@
       <c r="N56" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="O56" s="393" t="s">
+      <c r="O56" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P56" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q56" s="266"/>
-      <c r="R56" s="339" t="s">
+      <c r="R56" s="301" t="s">
         <v>725</v>
       </c>
-      <c r="S56" s="339"/>
+      <c r="S56" s="301"/>
       <c r="T56" s="289"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B57" s="390">
+      <c r="B57" s="349">
         <v>32</v>
       </c>
-      <c r="C57" s="392" t="s">
+      <c r="C57" s="351" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="392">
+      <c r="D57" s="351">
         <v>54</v>
       </c>
-      <c r="E57" s="392" t="s">
+      <c r="E57" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F57" s="220" t="s">
@@ -13678,21 +13678,21 @@
       <c r="N57" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="O57" s="393" t="s">
+      <c r="O57" s="352" t="s">
         <v>575</v>
       </c>
       <c r="P57" s="266" t="s">
         <v>673</v>
       </c>
       <c r="Q57" s="266"/>
-      <c r="R57" s="339" t="s">
+      <c r="R57" s="301" t="s">
         <v>726</v>
       </c>
-      <c r="S57" s="339"/>
+      <c r="S57" s="301"/>
       <c r="T57" s="282"/>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B58" s="358">
+      <c r="B58" s="317">
         <v>57</v>
       </c>
       <c r="C58" s="198" t="s">
@@ -13718,21 +13718,21 @@
       </c>
       <c r="P58" s="188"/>
       <c r="Q58" s="188"/>
-      <c r="R58" s="335"/>
-      <c r="S58" s="335"/>
+      <c r="R58" s="297"/>
+      <c r="S58" s="297"/>
       <c r="T58" s="263"/>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B59" s="399">
+      <c r="B59" s="358">
         <v>58</v>
       </c>
-      <c r="C59" s="400" t="s">
+      <c r="C59" s="359" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="400">
+      <c r="D59" s="359">
         <v>56</v>
       </c>
-      <c r="E59" s="400" t="s">
+      <c r="E59" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F59" s="220"/>
@@ -13744,30 +13744,30 @@
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="378" t="s">
+      <c r="O59" s="337" t="s">
         <v>695</v>
       </c>
       <c r="P59" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q59" s="280"/>
-      <c r="R59" s="405" t="s">
+      <c r="R59" s="364" t="s">
         <v>727</v>
       </c>
-      <c r="S59" s="405"/>
-      <c r="T59" s="407"/>
+      <c r="S59" s="364"/>
+      <c r="T59" s="366"/>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B60" s="399">
+      <c r="B60" s="358">
         <v>59</v>
       </c>
-      <c r="C60" s="400" t="s">
+      <c r="C60" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="400">
+      <c r="D60" s="359">
         <v>57</v>
       </c>
-      <c r="E60" s="400" t="s">
+      <c r="E60" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F60" s="220"/>
@@ -13779,21 +13779,21 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
-      <c r="O60" s="378" t="s">
+      <c r="O60" s="337" t="s">
         <v>695</v>
       </c>
       <c r="P60" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q60" s="280"/>
-      <c r="R60" s="405" t="s">
+      <c r="R60" s="364" t="s">
         <v>728</v>
       </c>
-      <c r="S60" s="405"/>
-      <c r="T60" s="407"/>
+      <c r="S60" s="364"/>
+      <c r="T60" s="366"/>
     </row>
     <row r="61" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="358">
+      <c r="B61" s="317">
         <v>60</v>
       </c>
       <c r="C61" s="198" t="s">
@@ -13819,12 +13819,12 @@
       </c>
       <c r="P61" s="188"/>
       <c r="Q61" s="188"/>
-      <c r="R61" s="333"/>
-      <c r="S61" s="333"/>
+      <c r="R61" s="295"/>
+      <c r="S61" s="295"/>
       <c r="T61" s="264"/>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B62" s="358">
+      <c r="B62" s="317">
         <v>61</v>
       </c>
       <c r="C62" s="198" t="s">
@@ -13852,21 +13852,21 @@
       </c>
       <c r="P62" s="188"/>
       <c r="Q62" s="188"/>
-      <c r="R62" s="335"/>
-      <c r="S62" s="335"/>
+      <c r="R62" s="297"/>
+      <c r="S62" s="297"/>
       <c r="T62" s="263"/>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B63" s="390">
+      <c r="B63" s="349">
         <v>62</v>
       </c>
-      <c r="C63" s="392" t="s">
+      <c r="C63" s="351" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="392">
+      <c r="D63" s="351">
         <v>60</v>
       </c>
-      <c r="E63" s="392" t="s">
+      <c r="E63" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F63" s="228" t="s">
@@ -13887,24 +13887,24 @@
         <v>673</v>
       </c>
       <c r="Q63" s="266"/>
-      <c r="R63" s="339" t="s">
+      <c r="R63" s="301" t="s">
         <v>697</v>
       </c>
-      <c r="S63" s="339"/>
+      <c r="S63" s="301"/>
       <c r="T63" s="289"/>
     </row>
     <row r="64" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64"/>
-      <c r="B64" s="390">
+      <c r="B64" s="349">
         <v>63</v>
       </c>
-      <c r="C64" s="392" t="s">
+      <c r="C64" s="351" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="392">
+      <c r="D64" s="351">
         <v>61</v>
       </c>
-      <c r="E64" s="392" t="s">
+      <c r="E64" s="351" t="s">
         <v>678</v>
       </c>
       <c r="F64" s="228" t="s">
@@ -13925,10 +13925,10 @@
         <v>673</v>
       </c>
       <c r="Q64" s="266"/>
-      <c r="R64" s="339" t="s">
+      <c r="R64" s="301" t="s">
         <v>698</v>
       </c>
-      <c r="S64" s="339"/>
+      <c r="S64" s="301"/>
       <c r="T64" s="282"/>
       <c r="U64"/>
       <c r="V64"/>
@@ -13956,7 +13956,7 @@
       <c r="AR64"/>
     </row>
     <row r="65" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="358">
+      <c r="B65" s="317">
         <v>64</v>
       </c>
       <c r="C65" s="198" t="s">
@@ -13984,12 +13984,12 @@
       </c>
       <c r="P65" s="188"/>
       <c r="Q65" s="188"/>
-      <c r="R65" s="333"/>
-      <c r="S65" s="333"/>
+      <c r="R65" s="295"/>
+      <c r="S65" s="295"/>
       <c r="T65" s="113"/>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B66" s="358">
+      <c r="B66" s="317">
         <v>39</v>
       </c>
       <c r="C66" s="198" t="s">
@@ -14023,13 +14023,13 @@
       </c>
       <c r="P66" s="188"/>
       <c r="Q66" s="188"/>
-      <c r="R66" s="333"/>
-      <c r="S66" s="333"/>
+      <c r="R66" s="295"/>
+      <c r="S66" s="295"/>
       <c r="T66" s="264"/>
     </row>
     <row r="67" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
-      <c r="B67" s="358">
+      <c r="B67" s="317">
         <v>40</v>
       </c>
       <c r="C67" s="198" t="s">
@@ -14065,8 +14065,8 @@
       </c>
       <c r="P67" s="188"/>
       <c r="Q67" s="188"/>
-      <c r="R67" s="333"/>
-      <c r="S67" s="333"/>
+      <c r="R67" s="295"/>
+      <c r="S67" s="295"/>
       <c r="T67" s="264"/>
       <c r="U67"/>
       <c r="V67"/>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="68" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
-      <c r="B68" s="358">
+      <c r="B68" s="317">
         <v>41</v>
       </c>
       <c r="C68" s="198" t="s">
@@ -14127,8 +14127,8 @@
       </c>
       <c r="P68" s="187"/>
       <c r="Q68" s="188"/>
-      <c r="R68" s="335"/>
-      <c r="S68" s="335"/>
+      <c r="R68" s="297"/>
+      <c r="S68" s="297"/>
       <c r="T68" s="262"/>
       <c r="U68"/>
       <c r="V68"/>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="69" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69"/>
-      <c r="B69" s="358">
+      <c r="B69" s="317">
         <v>42</v>
       </c>
       <c r="C69" s="198" t="s">
@@ -14193,8 +14193,8 @@
       </c>
       <c r="P69" s="187"/>
       <c r="Q69" s="188"/>
-      <c r="R69" s="335"/>
-      <c r="S69" s="335"/>
+      <c r="R69" s="297"/>
+      <c r="S69" s="297"/>
       <c r="T69" s="262"/>
       <c r="U69"/>
       <c r="V69"/>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="70" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
-      <c r="B70" s="358">
+      <c r="B70" s="317">
         <v>9</v>
       </c>
       <c r="C70" s="198" t="s">
@@ -14261,8 +14261,8 @@
       </c>
       <c r="P70" s="187"/>
       <c r="Q70" s="188"/>
-      <c r="R70" s="335"/>
-      <c r="S70" s="335"/>
+      <c r="R70" s="297"/>
+      <c r="S70" s="297"/>
       <c r="T70" s="262"/>
       <c r="U70"/>
       <c r="V70"/>
@@ -14294,7 +14294,7 @@
       <c r="AR70"/>
     </row>
     <row r="71" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="358">
+      <c r="B71" s="317">
         <v>10</v>
       </c>
       <c r="C71" s="198" t="s">
@@ -14330,8 +14330,8 @@
       </c>
       <c r="P71" s="187"/>
       <c r="Q71" s="188"/>
-      <c r="R71" s="335"/>
-      <c r="S71" s="335"/>
+      <c r="R71" s="297"/>
+      <c r="S71" s="297"/>
       <c r="T71" s="262"/>
       <c r="W71" s="70" t="s">
         <v>263</v>
@@ -14343,7 +14343,7 @@
       <c r="Z71" s="70"/>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B72" s="358">
+      <c r="B72" s="317">
         <v>11</v>
       </c>
       <c r="C72" s="198" t="s">
@@ -14379,8 +14379,8 @@
       </c>
       <c r="P72" s="187"/>
       <c r="Q72" s="188"/>
-      <c r="R72" s="335"/>
-      <c r="S72" s="335"/>
+      <c r="R72" s="297"/>
+      <c r="S72" s="297"/>
       <c r="T72" s="262"/>
       <c r="W72" s="178" t="s">
         <v>271</v>
@@ -14392,7 +14392,7 @@
       <c r="Z72" s="178"/>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B73" s="358">
+      <c r="B73" s="317">
         <v>12</v>
       </c>
       <c r="C73" s="198" t="s">
@@ -14426,8 +14426,8 @@
       </c>
       <c r="P73" s="187"/>
       <c r="Q73" s="188"/>
-      <c r="R73" s="335"/>
-      <c r="S73" s="335"/>
+      <c r="R73" s="297"/>
+      <c r="S73" s="297"/>
       <c r="T73" s="262"/>
       <c r="W73" s="178" t="s">
         <v>278</v>
@@ -14439,16 +14439,16 @@
       <c r="Z73" s="178"/>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B74" s="399">
+      <c r="B74" s="358">
         <v>13</v>
       </c>
-      <c r="C74" s="400" t="s">
+      <c r="C74" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="400">
+      <c r="D74" s="359">
         <v>71</v>
       </c>
-      <c r="E74" s="400" t="s">
+      <c r="E74" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F74" s="220" t="s">
@@ -14468,18 +14468,18 @@
         <v>283</v>
       </c>
       <c r="N74" s="17"/>
-      <c r="O74" s="378" t="s">
+      <c r="O74" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P74" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q74" s="280"/>
-      <c r="R74" s="405" t="s">
+      <c r="R74" s="364" t="s">
         <v>729</v>
       </c>
-      <c r="S74" s="405"/>
-      <c r="T74" s="406"/>
+      <c r="S74" s="364"/>
+      <c r="T74" s="365"/>
       <c r="W74" s="178" t="s">
         <v>284</v>
       </c>
@@ -14491,7 +14491,7 @@
     </row>
     <row r="75" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75"/>
-      <c r="B75" s="365">
+      <c r="B75" s="324">
         <v>14</v>
       </c>
       <c r="C75" s="45" t="s">
@@ -14521,11 +14521,11 @@
         <v>670</v>
       </c>
       <c r="Q75" s="268"/>
-      <c r="R75" s="373" t="s">
+      <c r="R75" s="332" t="s">
         <v>690</v>
       </c>
-      <c r="S75" s="373"/>
-      <c r="T75" s="374"/>
+      <c r="S75" s="332"/>
+      <c r="T75" s="333"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75" s="258"/>
@@ -14552,7 +14552,7 @@
       <c r="AR75"/>
     </row>
     <row r="76" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="356"/>
+      <c r="B76" s="315"/>
       <c r="C76" s="183" t="s">
         <v>689</v>
       </c>
@@ -14562,7 +14562,7 @@
       <c r="E76" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F76" s="329"/>
+      <c r="F76" s="291"/>
       <c r="G76" s="183"/>
       <c r="H76" s="183"/>
       <c r="I76" s="183"/>
@@ -14571,19 +14571,19 @@
       <c r="L76" s="183"/>
       <c r="M76" s="183"/>
       <c r="N76" s="183"/>
-      <c r="O76" s="330"/>
-      <c r="P76" s="330"/>
-      <c r="Q76" s="330"/>
-      <c r="R76" s="355"/>
-      <c r="S76" s="355"/>
-      <c r="T76" s="357"/>
+      <c r="O76" s="292"/>
+      <c r="P76" s="292"/>
+      <c r="Q76" s="292"/>
+      <c r="R76" s="314"/>
+      <c r="S76" s="314"/>
+      <c r="T76" s="316"/>
       <c r="W76" s="241"/>
       <c r="X76" s="251"/>
       <c r="Y76" s="251"/>
       <c r="Z76" s="241"/>
     </row>
     <row r="77" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="356"/>
+      <c r="B77" s="315"/>
       <c r="C77" s="183" t="s">
         <v>683</v>
       </c>
@@ -14593,7 +14593,7 @@
       <c r="E77" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F77" s="329"/>
+      <c r="F77" s="291"/>
       <c r="G77" s="183"/>
       <c r="H77" s="183"/>
       <c r="I77" s="183"/>
@@ -14602,59 +14602,59 @@
       <c r="L77" s="183"/>
       <c r="M77" s="183"/>
       <c r="N77" s="183"/>
-      <c r="O77" s="330"/>
-      <c r="P77" s="330"/>
-      <c r="Q77" s="330"/>
-      <c r="R77" s="355"/>
-      <c r="S77" s="355"/>
-      <c r="T77" s="357"/>
+      <c r="O77" s="292"/>
+      <c r="P77" s="292"/>
+      <c r="Q77" s="292"/>
+      <c r="R77" s="314"/>
+      <c r="S77" s="314"/>
+      <c r="T77" s="316"/>
       <c r="W77" s="241"/>
       <c r="X77" s="251"/>
       <c r="Y77" s="251"/>
       <c r="Z77" s="241"/>
     </row>
     <row r="78" spans="1:44" s="40" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="359"/>
-      <c r="C78" s="360" t="s">
+      <c r="B78" s="318"/>
+      <c r="C78" s="319" t="s">
         <v>684</v>
       </c>
-      <c r="D78" s="360">
+      <c r="D78" s="319">
         <v>75</v>
       </c>
-      <c r="E78" s="360" t="s">
+      <c r="E78" s="319" t="s">
         <v>682</v>
       </c>
-      <c r="F78" s="361"/>
-      <c r="G78" s="360"/>
-      <c r="H78" s="360"/>
-      <c r="I78" s="360"/>
-      <c r="J78" s="360"/>
-      <c r="K78" s="360"/>
-      <c r="L78" s="360"/>
-      <c r="M78" s="360"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="362"/>
-      <c r="P78" s="362"/>
-      <c r="Q78" s="362"/>
-      <c r="R78" s="363"/>
-      <c r="S78" s="363"/>
-      <c r="T78" s="364"/>
+      <c r="F78" s="320"/>
+      <c r="G78" s="319"/>
+      <c r="H78" s="319"/>
+      <c r="I78" s="319"/>
+      <c r="J78" s="319"/>
+      <c r="K78" s="319"/>
+      <c r="L78" s="319"/>
+      <c r="M78" s="319"/>
+      <c r="N78" s="319"/>
+      <c r="O78" s="321"/>
+      <c r="P78" s="321"/>
+      <c r="Q78" s="321"/>
+      <c r="R78" s="322"/>
+      <c r="S78" s="322"/>
+      <c r="T78" s="323"/>
       <c r="W78" s="241"/>
       <c r="X78" s="251"/>
       <c r="Y78" s="251"/>
       <c r="Z78" s="241"/>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B79" s="379">
+      <c r="B79" s="338">
         <v>15</v>
       </c>
-      <c r="C79" s="380" t="s">
+      <c r="C79" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="380">
+      <c r="D79" s="339">
         <v>76</v>
       </c>
-      <c r="E79" s="380" t="s">
+      <c r="E79" s="339" t="s">
         <v>678</v>
       </c>
       <c r="F79" s="219"/>
@@ -14675,10 +14675,10 @@
         <v>670</v>
       </c>
       <c r="Q79" s="276"/>
-      <c r="R79" s="349" t="s">
+      <c r="R79" s="308" t="s">
         <v>691</v>
       </c>
-      <c r="S79" s="349"/>
+      <c r="S79" s="308"/>
       <c r="T79" s="290"/>
       <c r="W79" s="258"/>
       <c r="X79" s="258"/>
@@ -14686,16 +14686,16 @@
       <c r="Z79" s="258"/>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B80" s="399">
+      <c r="B80" s="358">
         <v>16</v>
       </c>
-      <c r="C80" s="400" t="s">
+      <c r="C80" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="400">
+      <c r="D80" s="359">
         <v>77</v>
       </c>
-      <c r="E80" s="400" t="s">
+      <c r="E80" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F80" s="220" t="s">
@@ -14717,34 +14717,34 @@
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="378" t="s">
+      <c r="O80" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P80" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q80" s="280"/>
-      <c r="R80" s="405" t="s">
+      <c r="R80" s="364" t="s">
         <v>730</v>
       </c>
-      <c r="S80" s="405"/>
-      <c r="T80" s="408"/>
+      <c r="S80" s="364"/>
+      <c r="T80" s="367"/>
       <c r="W80" s="258"/>
       <c r="X80" s="258"/>
       <c r="Y80" s="258"/>
       <c r="Z80" s="258"/>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B81" s="399">
+      <c r="B81" s="358">
         <v>43</v>
       </c>
-      <c r="C81" s="400" t="s">
+      <c r="C81" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="400">
+      <c r="D81" s="359">
         <v>78</v>
       </c>
-      <c r="E81" s="400" t="s">
+      <c r="E81" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F81" s="220"/>
@@ -14762,31 +14762,31 @@
       <c r="N81" s="112" t="s">
         <v>411</v>
       </c>
-      <c r="O81" s="378" t="s">
+      <c r="O81" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P81" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q81" s="280"/>
-      <c r="R81" s="341" t="s">
+      <c r="R81" s="303" t="s">
         <v>731</v>
       </c>
-      <c r="S81" s="341"/>
-      <c r="T81" s="406"/>
+      <c r="S81" s="303"/>
+      <c r="T81" s="365"/>
     </row>
     <row r="82" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
-      <c r="B82" s="399">
+      <c r="B82" s="358">
         <v>44</v>
       </c>
-      <c r="C82" s="400" t="s">
+      <c r="C82" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="400">
+      <c r="D82" s="359">
         <v>79</v>
       </c>
-      <c r="E82" s="400" t="s">
+      <c r="E82" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F82" s="220"/>
@@ -14804,18 +14804,18 @@
       <c r="N82" s="112" t="s">
         <v>416</v>
       </c>
-      <c r="O82" s="378" t="s">
+      <c r="O82" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P82" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q82" s="280"/>
-      <c r="R82" s="405" t="s">
+      <c r="R82" s="364" t="s">
         <v>732</v>
       </c>
-      <c r="S82" s="405"/>
-      <c r="T82" s="406"/>
+      <c r="S82" s="364"/>
+      <c r="T82" s="365"/>
       <c r="V82"/>
       <c r="W82"/>
       <c r="X82"/>
@@ -14842,16 +14842,16 @@
     </row>
     <row r="83" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
-      <c r="B83" s="399">
+      <c r="B83" s="358">
         <v>45</v>
       </c>
-      <c r="C83" s="400" t="s">
+      <c r="C83" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="400">
+      <c r="D83" s="359">
         <v>80</v>
       </c>
-      <c r="E83" s="400" t="s">
+      <c r="E83" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F83" s="220"/>
@@ -14869,18 +14869,18 @@
       <c r="N83" s="112" t="s">
         <v>366</v>
       </c>
-      <c r="O83" s="378" t="s">
+      <c r="O83" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P83" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q83" s="280"/>
-      <c r="R83" s="405" t="s">
+      <c r="R83" s="364" t="s">
         <v>733</v>
       </c>
-      <c r="S83" s="405"/>
-      <c r="T83" s="406"/>
+      <c r="S83" s="364"/>
+      <c r="T83" s="365"/>
       <c r="V83"/>
       <c r="W83"/>
       <c r="X83"/>
@@ -14907,16 +14907,16 @@
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
-      <c r="B84" s="399">
+      <c r="B84" s="358">
         <v>49</v>
       </c>
-      <c r="C84" s="400" t="s">
+      <c r="C84" s="359" t="s">
         <v>426</v>
       </c>
-      <c r="D84" s="400">
+      <c r="D84" s="359">
         <v>81</v>
       </c>
-      <c r="E84" s="400" t="s">
+      <c r="E84" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F84" s="152"/>
@@ -14928,18 +14928,18 @@
       <c r="L84" s="198"/>
       <c r="M84" s="198"/>
       <c r="N84" s="198"/>
-      <c r="O84" s="378" t="s">
+      <c r="O84" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P84" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q84" s="280"/>
-      <c r="R84" s="405" t="s">
+      <c r="R84" s="364" t="s">
         <v>734</v>
       </c>
-      <c r="S84" s="405"/>
-      <c r="T84" s="406"/>
+      <c r="S84" s="364"/>
+      <c r="T84" s="365"/>
       <c r="V84" s="40"/>
       <c r="W84" s="40"/>
       <c r="X84" s="40"/>
@@ -14966,16 +14966,16 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
-      <c r="B85" s="399">
+      <c r="B85" s="358">
         <v>50</v>
       </c>
-      <c r="C85" s="400" t="s">
+      <c r="C85" s="359" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="400">
+      <c r="D85" s="359">
         <v>82</v>
       </c>
-      <c r="E85" s="400" t="s">
+      <c r="E85" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F85" s="152"/>
@@ -14987,18 +14987,18 @@
       <c r="L85" s="198"/>
       <c r="M85" s="198"/>
       <c r="N85" s="198"/>
-      <c r="O85" s="378" t="s">
+      <c r="O85" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P85" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q85" s="280"/>
-      <c r="R85" s="405" t="s">
+      <c r="R85" s="364" t="s">
         <v>735</v>
       </c>
-      <c r="S85" s="405"/>
-      <c r="T85" s="406"/>
+      <c r="S85" s="364"/>
+      <c r="T85" s="365"/>
       <c r="V85" s="40"/>
       <c r="W85" s="40"/>
       <c r="X85" s="40"/>
@@ -15025,16 +15025,16 @@
     </row>
     <row r="86" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86"/>
-      <c r="B86" s="399">
+      <c r="B86" s="358">
         <v>51</v>
       </c>
-      <c r="C86" s="400" t="s">
+      <c r="C86" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="400">
+      <c r="D86" s="359">
         <v>83</v>
       </c>
-      <c r="E86" s="400" t="s">
+      <c r="E86" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F86" s="220" t="s">
@@ -15050,18 +15050,18 @@
       <c r="N86" s="112" t="s">
         <v>429</v>
       </c>
-      <c r="O86" s="378" t="s">
+      <c r="O86" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P86" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q86" s="280"/>
-      <c r="R86" s="405" t="s">
+      <c r="R86" s="364" t="s">
         <v>736</v>
       </c>
-      <c r="S86" s="405"/>
-      <c r="T86" s="406"/>
+      <c r="S86" s="364"/>
+      <c r="T86" s="365"/>
       <c r="V86"/>
       <c r="W86"/>
       <c r="X86"/>
@@ -15088,16 +15088,16 @@
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
-      <c r="B87" s="399">
+      <c r="B87" s="358">
         <v>52</v>
       </c>
-      <c r="C87" s="400" t="s">
+      <c r="C87" s="359" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="400">
+      <c r="D87" s="359">
         <v>84</v>
       </c>
-      <c r="E87" s="400" t="s">
+      <c r="E87" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F87" s="152"/>
@@ -15115,18 +15115,18 @@
       </c>
       <c r="M87" s="198"/>
       <c r="N87" s="198"/>
-      <c r="O87" s="378" t="s">
+      <c r="O87" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P87" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q87" s="280"/>
-      <c r="R87" s="405" t="s">
+      <c r="R87" s="364" t="s">
         <v>737</v>
       </c>
-      <c r="S87" s="405"/>
-      <c r="T87" s="406"/>
+      <c r="S87" s="364"/>
+      <c r="T87" s="365"/>
       <c r="V87" s="40"/>
       <c r="W87" s="40"/>
       <c r="X87" s="40"/>
@@ -15153,10 +15153,10 @@
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
-      <c r="B88" s="415">
+      <c r="B88" s="374">
         <v>53</v>
       </c>
-      <c r="C88" s="416" t="s">
+      <c r="C88" s="375" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="280">
@@ -15165,7 +15165,7 @@
       <c r="E88" s="280" t="s">
         <v>678</v>
       </c>
-      <c r="F88" s="333"/>
+      <c r="F88" s="295"/>
       <c r="G88" s="188"/>
       <c r="H88" s="188"/>
       <c r="I88" s="188"/>
@@ -15176,18 +15176,18 @@
       </c>
       <c r="M88" s="188"/>
       <c r="N88" s="188"/>
-      <c r="O88" s="378" t="s">
+      <c r="O88" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P88" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q88" s="280"/>
-      <c r="R88" s="405" t="s">
+      <c r="R88" s="364" t="s">
         <v>738</v>
       </c>
-      <c r="S88" s="405"/>
-      <c r="T88" s="417" t="s">
+      <c r="S88" s="364"/>
+      <c r="T88" s="376" t="s">
         <v>739</v>
       </c>
       <c r="V88" s="40"/>
@@ -15216,16 +15216,16 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
-      <c r="B89" s="410">
+      <c r="B89" s="369">
         <v>54</v>
       </c>
-      <c r="C89" s="411" t="s">
+      <c r="C89" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="411">
+      <c r="D89" s="370">
         <v>86</v>
       </c>
-      <c r="E89" s="411" t="s">
+      <c r="E89" s="370" t="s">
         <v>678</v>
       </c>
       <c r="F89" s="220"/>
@@ -15239,17 +15239,17 @@
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
-      <c r="O89" s="412" t="s">
+      <c r="O89" s="371" t="s">
         <v>695</v>
       </c>
       <c r="P89" s="285" t="s">
         <v>700</v>
       </c>
       <c r="Q89" s="285"/>
-      <c r="R89" s="413" t="s">
+      <c r="R89" s="372" t="s">
         <v>700</v>
       </c>
-      <c r="S89" s="342"/>
+      <c r="S89" s="304"/>
       <c r="T89" s="286"/>
       <c r="U89" s="40"/>
       <c r="V89" s="40"/>
@@ -15277,16 +15277,16 @@
       <c r="AR89" s="40"/>
     </row>
     <row r="90" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="410">
+      <c r="B90" s="369">
         <v>55</v>
       </c>
-      <c r="C90" s="411" t="s">
+      <c r="C90" s="370" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="411">
+      <c r="D90" s="370">
         <v>87</v>
       </c>
-      <c r="E90" s="411" t="s">
+      <c r="E90" s="370" t="s">
         <v>678</v>
       </c>
       <c r="F90" s="220"/>
@@ -15304,30 +15304,30 @@
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
-      <c r="O90" s="412" t="s">
+      <c r="O90" s="371" t="s">
         <v>696</v>
       </c>
       <c r="P90" s="285" t="s">
         <v>701</v>
       </c>
       <c r="Q90" s="285"/>
-      <c r="R90" s="413" t="s">
+      <c r="R90" s="372" t="s">
         <v>701</v>
       </c>
-      <c r="S90" s="342"/>
+      <c r="S90" s="304"/>
       <c r="T90" s="286"/>
     </row>
     <row r="91" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="399">
+      <c r="B91" s="358">
         <v>56</v>
       </c>
-      <c r="C91" s="400" t="s">
+      <c r="C91" s="359" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="400">
+      <c r="D91" s="359">
         <v>88</v>
       </c>
-      <c r="E91" s="400" t="s">
+      <c r="E91" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F91" s="220"/>
@@ -15341,31 +15341,31 @@
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
-      <c r="O91" s="378" t="s">
+      <c r="O91" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P91" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q91" s="280"/>
-      <c r="R91" s="341" t="s">
+      <c r="R91" s="303" t="s">
         <v>740</v>
       </c>
-      <c r="S91" s="341"/>
+      <c r="S91" s="303"/>
       <c r="T91" s="281"/>
     </row>
     <row r="92" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92"/>
-      <c r="B92" s="410">
+      <c r="B92" s="369">
         <v>20</v>
       </c>
-      <c r="C92" s="411" t="s">
+      <c r="C92" s="370" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="411">
+      <c r="D92" s="370">
         <v>89</v>
       </c>
-      <c r="E92" s="411" t="s">
+      <c r="E92" s="370" t="s">
         <v>678</v>
       </c>
       <c r="F92" s="220" t="s">
@@ -15389,17 +15389,17 @@
       </c>
       <c r="M92" s="24"/>
       <c r="N92" s="24"/>
-      <c r="O92" s="412" t="s">
+      <c r="O92" s="371" t="s">
         <v>694</v>
       </c>
       <c r="P92" s="285" t="s">
         <v>671</v>
       </c>
       <c r="Q92" s="285"/>
-      <c r="R92" s="342" t="s">
+      <c r="R92" s="304" t="s">
         <v>675</v>
       </c>
-      <c r="S92" s="342"/>
+      <c r="S92" s="304"/>
       <c r="T92" s="286"/>
       <c r="U92"/>
       <c r="V92"/>
@@ -15428,16 +15428,16 @@
     </row>
     <row r="93" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93"/>
-      <c r="B93" s="399">
+      <c r="B93" s="358">
         <v>21</v>
       </c>
-      <c r="C93" s="400" t="s">
+      <c r="C93" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="400">
+      <c r="D93" s="359">
         <v>90</v>
       </c>
-      <c r="E93" s="400" t="s">
+      <c r="E93" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F93" s="220" t="s">
@@ -15459,18 +15459,18 @@
       <c r="N93" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="O93" s="378" t="s">
+      <c r="O93" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P93" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q93" s="280"/>
-      <c r="R93" s="341" t="s">
+      <c r="R93" s="303" t="s">
         <v>741</v>
       </c>
-      <c r="S93" s="341"/>
-      <c r="T93" s="409"/>
+      <c r="S93" s="303"/>
+      <c r="T93" s="368"/>
       <c r="U93"/>
       <c r="V93"/>
       <c r="W93"/>
@@ -15499,16 +15499,16 @@
       <c r="AR93"/>
     </row>
     <row r="94" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="410">
+      <c r="B94" s="369">
         <v>22</v>
       </c>
-      <c r="C94" s="411" t="s">
+      <c r="C94" s="370" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="411">
+      <c r="D94" s="370">
         <v>91</v>
       </c>
-      <c r="E94" s="414" t="s">
+      <c r="E94" s="373" t="s">
         <v>679</v>
       </c>
       <c r="F94" s="152" t="s">
@@ -15530,17 +15530,17 @@
       <c r="N94" s="198" t="s">
         <v>317</v>
       </c>
-      <c r="O94" s="412" t="s">
+      <c r="O94" s="371" t="s">
         <v>575</v>
       </c>
       <c r="P94" s="285" t="s">
         <v>672</v>
       </c>
       <c r="Q94" s="285"/>
-      <c r="R94" s="342" t="s">
+      <c r="R94" s="304" t="s">
         <v>676</v>
       </c>
-      <c r="S94" s="342"/>
+      <c r="S94" s="304"/>
       <c r="T94" s="286"/>
       <c r="Y94" s="40" t="s">
         <v>580</v>
@@ -15557,16 +15557,16 @@
     </row>
     <row r="95" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95"/>
-      <c r="B95" s="399">
+      <c r="B95" s="358">
         <v>23</v>
       </c>
-      <c r="C95" s="400" t="s">
+      <c r="C95" s="359" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="400">
+      <c r="D95" s="359">
         <v>92</v>
       </c>
-      <c r="E95" s="400" t="s">
+      <c r="E95" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F95" s="220" t="s">
@@ -15584,18 +15584,18 @@
       </c>
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
-      <c r="O95" s="378" t="s">
+      <c r="O95" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P95" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q95" s="280"/>
-      <c r="R95" s="405" t="s">
+      <c r="R95" s="364" t="s">
         <v>742</v>
       </c>
-      <c r="S95" s="405"/>
-      <c r="T95" s="406"/>
+      <c r="S95" s="364"/>
+      <c r="T95" s="365"/>
       <c r="U95"/>
       <c r="V95"/>
       <c r="W95" s="247" t="s">
@@ -15643,16 +15643,16 @@
     </row>
     <row r="96" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96"/>
-      <c r="B96" s="399">
+      <c r="B96" s="358">
         <v>24</v>
       </c>
-      <c r="C96" s="400" t="s">
+      <c r="C96" s="359" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="400">
+      <c r="D96" s="359">
         <v>93</v>
       </c>
-      <c r="E96" s="400" t="s">
+      <c r="E96" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F96" s="220" t="s">
@@ -15672,18 +15672,18 @@
       <c r="N96" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="O96" s="378" t="s">
+      <c r="O96" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P96" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q96" s="280"/>
-      <c r="R96" s="405" t="s">
+      <c r="R96" s="364" t="s">
         <v>743</v>
       </c>
-      <c r="S96" s="405"/>
-      <c r="T96" s="406"/>
+      <c r="S96" s="364"/>
+      <c r="T96" s="365"/>
       <c r="U96"/>
       <c r="V96"/>
       <c r="W96" s="245"/>
@@ -15729,7 +15729,7 @@
     </row>
     <row r="97" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97"/>
-      <c r="B97" s="365">
+      <c r="B97" s="324">
         <v>84</v>
       </c>
       <c r="C97" s="45" t="s">
@@ -15757,8 +15757,8 @@
         <v>670</v>
       </c>
       <c r="Q97" s="270"/>
-      <c r="R97" s="334"/>
-      <c r="S97" s="334" t="s">
+      <c r="R97" s="296"/>
+      <c r="S97" s="296" t="s">
         <v>699</v>
       </c>
       <c r="T97" s="277"/>
@@ -15789,7 +15789,7 @@
     </row>
     <row r="98" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
-      <c r="B98" s="358">
+      <c r="B98" s="317">
         <v>25</v>
       </c>
       <c r="C98" s="198" t="s">
@@ -15825,8 +15825,8 @@
       </c>
       <c r="P98" s="188"/>
       <c r="Q98" s="188"/>
-      <c r="R98" s="335"/>
-      <c r="S98" s="335"/>
+      <c r="R98" s="297"/>
+      <c r="S98" s="297"/>
       <c r="T98" s="262"/>
       <c r="U98"/>
       <c r="V98"/>
@@ -15854,7 +15854,7 @@
       <c r="AR98"/>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B99" s="358">
+      <c r="B99" s="317">
         <v>26</v>
       </c>
       <c r="C99" s="198" t="s">
@@ -15890,22 +15890,22 @@
       </c>
       <c r="P99" s="188"/>
       <c r="Q99" s="188"/>
-      <c r="R99" s="335"/>
-      <c r="S99" s="335"/>
+      <c r="R99" s="297"/>
+      <c r="S99" s="297"/>
       <c r="T99" s="262"/>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
-      <c r="B100" s="399">
+      <c r="B100" s="358">
         <v>65</v>
       </c>
-      <c r="C100" s="400" t="s">
+      <c r="C100" s="359" t="s">
         <v>447</v>
       </c>
-      <c r="D100" s="400">
+      <c r="D100" s="359">
         <v>97</v>
       </c>
-      <c r="E100" s="400" t="s">
+      <c r="E100" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F100" s="152" t="s">
@@ -15919,18 +15919,18 @@
       <c r="L100" s="198"/>
       <c r="M100" s="198"/>
       <c r="N100" s="198"/>
-      <c r="O100" s="378" t="s">
+      <c r="O100" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P100" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q100" s="280"/>
-      <c r="R100" s="405" t="s">
+      <c r="R100" s="364" t="s">
         <v>744</v>
       </c>
-      <c r="S100" s="405"/>
-      <c r="T100" s="406"/>
+      <c r="S100" s="364"/>
+      <c r="T100" s="365"/>
       <c r="U100" s="40"/>
       <c r="V100" s="40"/>
       <c r="W100" s="40"/>
@@ -15957,16 +15957,16 @@
       <c r="AR100" s="40"/>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B101" s="399">
+      <c r="B101" s="358">
         <v>66</v>
       </c>
-      <c r="C101" s="400" t="s">
+      <c r="C101" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="400">
+      <c r="D101" s="359">
         <v>98</v>
       </c>
-      <c r="E101" s="400" t="s">
+      <c r="E101" s="359" t="s">
         <v>678</v>
       </c>
       <c r="F101" s="220"/>
@@ -15978,21 +15978,21 @@
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
-      <c r="O101" s="378" t="s">
+      <c r="O101" s="337" t="s">
         <v>692</v>
       </c>
       <c r="P101" s="280" t="s">
         <v>674</v>
       </c>
       <c r="Q101" s="280"/>
-      <c r="R101" s="405" t="s">
+      <c r="R101" s="364" t="s">
         <v>745</v>
       </c>
-      <c r="S101" s="405"/>
-      <c r="T101" s="406"/>
+      <c r="S101" s="364"/>
+      <c r="T101" s="365"/>
     </row>
     <row r="102" spans="1:44" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="356"/>
+      <c r="B102" s="315"/>
       <c r="C102" s="183" t="s">
         <v>683</v>
       </c>
@@ -16002,7 +16002,7 @@
       <c r="E102" s="183" t="s">
         <v>682</v>
       </c>
-      <c r="F102" s="329"/>
+      <c r="F102" s="291"/>
       <c r="G102" s="183"/>
       <c r="H102" s="183"/>
       <c r="I102" s="183"/>
@@ -16011,43 +16011,43 @@
       <c r="L102" s="183"/>
       <c r="M102" s="183"/>
       <c r="N102" s="183"/>
-      <c r="O102" s="330"/>
-      <c r="P102" s="330"/>
-      <c r="Q102" s="330"/>
-      <c r="R102" s="355"/>
-      <c r="S102" s="355"/>
-      <c r="T102" s="357"/>
+      <c r="O102" s="292"/>
+      <c r="P102" s="292"/>
+      <c r="Q102" s="292"/>
+      <c r="R102" s="314"/>
+      <c r="S102" s="314"/>
+      <c r="T102" s="316"/>
       <c r="W102" s="241"/>
       <c r="X102" s="251"/>
       <c r="Y102" s="251"/>
       <c r="Z102" s="241"/>
     </row>
     <row r="103" spans="1:44" s="40" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="359"/>
-      <c r="C103" s="360" t="s">
+      <c r="B103" s="318"/>
+      <c r="C103" s="319" t="s">
         <v>684</v>
       </c>
-      <c r="D103" s="360">
+      <c r="D103" s="319">
         <v>100</v>
       </c>
-      <c r="E103" s="360" t="s">
+      <c r="E103" s="319" t="s">
         <v>682</v>
       </c>
-      <c r="F103" s="361"/>
-      <c r="G103" s="360"/>
-      <c r="H103" s="360"/>
-      <c r="I103" s="360"/>
-      <c r="J103" s="360"/>
-      <c r="K103" s="360"/>
-      <c r="L103" s="360"/>
-      <c r="M103" s="360"/>
-      <c r="N103" s="360"/>
-      <c r="O103" s="362"/>
-      <c r="P103" s="362"/>
-      <c r="Q103" s="362"/>
-      <c r="R103" s="363"/>
-      <c r="S103" s="363"/>
-      <c r="T103" s="364"/>
+      <c r="F103" s="320"/>
+      <c r="G103" s="319"/>
+      <c r="H103" s="319"/>
+      <c r="I103" s="319"/>
+      <c r="J103" s="319"/>
+      <c r="K103" s="319"/>
+      <c r="L103" s="319"/>
+      <c r="M103" s="319"/>
+      <c r="N103" s="319"/>
+      <c r="O103" s="321"/>
+      <c r="P103" s="321"/>
+      <c r="Q103" s="321"/>
+      <c r="R103" s="322"/>
+      <c r="S103" s="322"/>
+      <c r="T103" s="323"/>
       <c r="W103" s="241"/>
       <c r="X103" s="251"/>
       <c r="Y103" s="251"/>
@@ -16063,10 +16063,10 @@
       <c r="Q106" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="R106" s="343" t="s">
+      <c r="R106" s="305" t="s">
         <v>595</v>
       </c>
-      <c r="S106" s="351"/>
+      <c r="S106" s="310"/>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.3">
       <c r="O107" s="61" t="s">
@@ -16078,10 +16078,10 @@
       <c r="Q107" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="R107" s="344" t="s">
+      <c r="R107" s="306" t="s">
         <v>590</v>
       </c>
-      <c r="S107" s="352"/>
+      <c r="S107" s="311"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J108" s="278" t="s">
@@ -16099,10 +16099,10 @@
       <c r="Q108" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="R108" s="343" t="s">
+      <c r="R108" s="305" t="s">
         <v>592</v>
       </c>
-      <c r="S108" s="351"/>
+      <c r="S108" s="310"/>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J109" s="259" t="s">
@@ -16120,10 +16120,10 @@
       <c r="Q109" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="R109" s="345" t="s">
+      <c r="R109" s="307" t="s">
         <v>614</v>
       </c>
-      <c r="S109" s="353"/>
+      <c r="S109" s="312"/>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J110" s="259" t="s">
@@ -16141,10 +16141,10 @@
       <c r="Q110" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="R110" s="345" t="s">
+      <c r="R110" s="307" t="s">
         <v>612</v>
       </c>
-      <c r="S110" s="353"/>
+      <c r="S110" s="312"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J111" s="287" t="s">
@@ -16166,62 +16166,62 @@
       <c r="Q113" s="142" t="s">
         <v>623</v>
       </c>
-      <c r="R113" s="332" t="s">
+      <c r="R113" s="294" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="114" spans="16:18" x14ac:dyDescent="0.3">
-      <c r="P114" s="331" t="s">
+      <c r="P114" s="293" t="s">
         <v>616</v>
       </c>
       <c r="Q114" s="142" t="s">
         <v>617</v>
       </c>
-      <c r="R114" s="332" t="s">
+      <c r="R114" s="294" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="115" spans="16:18" x14ac:dyDescent="0.3">
-      <c r="P115" s="331" t="s">
+      <c r="P115" s="293" t="s">
         <v>622</v>
       </c>
       <c r="Q115" s="142">
         <v>1</v>
       </c>
-      <c r="R115" s="332">
+      <c r="R115" s="294">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="16:18" x14ac:dyDescent="0.3">
-      <c r="P116" s="331" t="s">
+      <c r="P116" s="293" t="s">
         <v>621</v>
       </c>
       <c r="Q116" s="142">
         <v>1</v>
       </c>
-      <c r="R116" s="332">
+      <c r="R116" s="294">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="16:18" x14ac:dyDescent="0.3">
-      <c r="P117" s="331" t="s">
+      <c r="P117" s="293" t="s">
         <v>620</v>
       </c>
       <c r="Q117" s="142">
         <v>0</v>
       </c>
-      <c r="R117" s="332">
+      <c r="R117" s="294">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="16:18" x14ac:dyDescent="0.3">
-      <c r="P118" s="331" t="s">
+      <c r="P118" s="293" t="s">
         <v>619</v>
       </c>
       <c r="Q118" s="142">
         <v>0</v>
       </c>
-      <c r="R118" s="332">
+      <c r="R118" s="294">
         <v>0</v>
       </c>
     </row>
